--- a/LISTA CENTROS/Listado de Centros Programas y Sanciones Justicia Juvenil 01.xlsx
+++ b/LISTA CENTROS/Listado de Centros Programas y Sanciones Justicia Juvenil 01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DATA INTELLIGENCE Dropbox\Diseño DATA's\DATASENAME\LISTA CENTROS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA INTELLIGENCE Dropbox\Diseño DATA's\DATA-SENAME\LISTA CENTROS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31FA54D7-6D83-4E09-AFAF-515C001D5AB0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3252BBF-68EA-41FE-AF99-2EC226DC9272}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="4" r:id="rId1"/>
@@ -25,7 +25,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId6"/>
+    <pivotCache cacheId="0" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -3410,16 +3410,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -3581,61 +3573,75 @@
   </cellStyleXfs>
   <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="20">
+  <dxfs count="24">
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -3644,7 +3650,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -4188,8 +4194,8 @@
     <tableStyle name="Estilo de segmentación de datos 1" pivot="0" table="0" count="0" xr9:uid="{62A3D2F5-AE4A-4864-8BF1-9E86416BDC8A}"/>
     <tableStyle name="Estilo de segmentación de datos 2" pivot="0" table="0" count="0" xr9:uid="{C563EAA9-DDC1-4018-856B-FB7489DC26E0}"/>
     <tableStyle name="Estilo de segmentación de datos 3" pivot="0" table="0" count="4" xr9:uid="{753214EC-89B6-4755-BE66-D05362B5C371}">
-      <tableStyleElement type="wholeTable" dxfId="19"/>
-      <tableStyleElement type="headerRow" dxfId="18"/>
+      <tableStyleElement type="wholeTable" dxfId="23"/>
+      <tableStyleElement type="headerRow" dxfId="22"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -4346,7 +4352,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Patricio Emanuelli" refreshedDate="44122.454571180555" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="267" xr:uid="{43C97DA6-609B-4B00-BDE4-C6A952DCB711}">
   <cacheSource type="worksheet">
-    <worksheetSource name="Tabla1"/>
+    <worksheetSource name="Centros_Prog_Sanciones"/>
   </cacheSource>
   <cacheFields count="12">
     <cacheField name="Codreg" numFmtId="0">
@@ -8648,7 +8654,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CB7BE378-A55A-4A96-9CEB-ACBBD1F2BFF5}" name="TablaDinámica1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" showDrill="0" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CB7BE378-A55A-4A96-9CEB-ACBBD1F2BFF5}" name="TablaDinámica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" showDrill="0" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A3:C270" firstHeaderRow="1" firstDataRow="1" firstDataCol="3"/>
   <pivotFields count="12">
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -10380,42 +10386,42 @@
       <calculatedColumnFormula>+B2&amp;", "&amp;A2&amp;", Chile"</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FB97A539-69C0-47C9-9423-B40869F2AEC3}" name="Tabla1" displayName="Tabla1" ref="A9:L276" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16" tableBorderDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FB97A539-69C0-47C9-9423-B40869F2AEC3}" name="Centros_Prog_Sanciones" displayName="Centros_Prog_Sanciones" ref="A9:L276" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20" tableBorderDxfId="19">
   <autoFilter ref="A9:L276" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{AA6567EE-CAD5-4436-AB19-47986B1E118A}" name="Codreg" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{F678609B-CCB7-4032-90FB-9D0B50141463}" name="Región" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{361EAB5B-C4FA-460C-A803-E639E786D8A3}" name="CodProyecto" dataDxfId="12"/>
-    <tableColumn id="13" xr3:uid="{FF6D33E4-33EA-49D8-A6DF-2C72C8D1A551}" name="NemoTecnico" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{43719DF8-BB39-4740-B77B-69089611D755}" name="Nombre" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{3AC5C18F-DDFA-4157-9496-AE44CBCB2108}" name="Direccion" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{0DA8B429-6304-4DC5-AF3C-A0F24148ED07}" name="Telefono" dataDxfId="8"/>
-    <tableColumn id="7" xr3:uid="{2D8DFABB-9714-49E2-AC89-926BE5C025CA}" name="Director" dataDxfId="7"/>
-    <tableColumn id="8" xr3:uid="{479AE375-4385-4B0D-AFDD-3E9CE26E8FA5}" name="NumeroPlazas" dataDxfId="6"/>
-    <tableColumn id="9" xr3:uid="{C26D530F-AD2D-4F3A-BF2B-BC2CECFA3B58}" name="Sexo" dataDxfId="5"/>
-    <tableColumn id="11" xr3:uid="{BBB3BC07-2CF2-406D-AE3E-C99E734389FC}" name="Tematica" dataDxfId="4"/>
-    <tableColumn id="12" xr3:uid="{AE61A252-B472-4ECA-AC6E-8B8B44880239}" name="NombreInstitucion" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{AA6567EE-CAD5-4436-AB19-47986B1E118A}" name="Codreg" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{F678609B-CCB7-4032-90FB-9D0B50141463}" name="Región" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{361EAB5B-C4FA-460C-A803-E639E786D8A3}" name="CodProyecto" dataDxfId="16"/>
+    <tableColumn id="13" xr3:uid="{FF6D33E4-33EA-49D8-A6DF-2C72C8D1A551}" name="NemoTecnico" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{43719DF8-BB39-4740-B77B-69089611D755}" name="Nombre" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{3AC5C18F-DDFA-4157-9496-AE44CBCB2108}" name="Direccion" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{0DA8B429-6304-4DC5-AF3C-A0F24148ED07}" name="Telefono" dataDxfId="12"/>
+    <tableColumn id="7" xr3:uid="{2D8DFABB-9714-49E2-AC89-926BE5C025CA}" name="Director" dataDxfId="11"/>
+    <tableColumn id="8" xr3:uid="{479AE375-4385-4B0D-AFDD-3E9CE26E8FA5}" name="NumeroPlazas" dataDxfId="10"/>
+    <tableColumn id="9" xr3:uid="{C26D530F-AD2D-4F3A-BF2B-BC2CECFA3B58}" name="Sexo" dataDxfId="9"/>
+    <tableColumn id="11" xr3:uid="{BBB3BC07-2CF2-406D-AE3E-C99E734389FC}" name="Tematica" dataDxfId="8"/>
+    <tableColumn id="12" xr3:uid="{AE61A252-B472-4ECA-AC6E-8B8B44880239}" name="NombreInstitucion" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla3" displayName="Tabla3" ref="A2:E10" totalsRowShown="0" headerRowDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Nemo_Tecnico_Tipo_Centro" displayName="Nemo_Tecnico_Tipo_Centro" ref="A2:E10" totalsRowShown="0" headerRowDxfId="6" dataDxfId="0">
   <autoFilter ref="A2:E10" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Tipo de centros" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="codigo"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Definicion"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Poblacion del programa corresponde a"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Descripcion" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Tipo de centros" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="codigo" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Definicion" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Poblacion del programa corresponde a" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Descripcion" dataDxfId="1"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -10742,8 +10748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D65B6C9-8E39-449E-B551-8F0E92C179D2}">
   <dimension ref="A3:C270"/>
   <sheetViews>
-    <sheetView topLeftCell="A154" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:C270"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10754,13 +10760,13 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="20" t="s">
         <v>935</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="20" t="s">
         <v>2</v>
       </c>
     </row>
@@ -13710,14 +13716,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{128BD180-8023-4C1F-A870-BAF795C68D05}">
   <dimension ref="A1:C268"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C268"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="51.109375" customWidth="1"/>
-    <col min="3" max="3" width="56.77734375" customWidth="1"/>
+    <col min="3" max="3" width="93.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -16947,8 +16953,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A9:L276"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16960,7 +16966,7 @@
     <col min="6" max="6" width="35.5546875" customWidth="1"/>
     <col min="7" max="7" width="25.77734375" style="6" customWidth="1"/>
     <col min="8" max="8" width="38.77734375" customWidth="1"/>
-    <col min="9" max="9" width="13" style="19" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13" style="16" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6.44140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="71" customWidth="1"/>
     <col min="12" max="12" width="64.77734375" customWidth="1"/>
@@ -16991,7 +16997,7 @@
       <c r="H9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I9" s="20" t="s">
+      <c r="I9" s="17" t="s">
         <v>5</v>
       </c>
       <c r="J9" s="1" t="s">
@@ -17000,7 +17006,7 @@
       <c r="K9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L9" s="14" t="s">
+      <c r="L9" s="11" t="s">
         <v>9</v>
       </c>
     </row>
@@ -17029,7 +17035,7 @@
       <c r="H10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I10" s="21">
+      <c r="I10" s="18">
         <v>24</v>
       </c>
       <c r="J10" s="3" t="s">
@@ -17038,7 +17044,7 @@
       <c r="K10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L10" s="15" t="s">
+      <c r="L10" s="12" t="s">
         <v>17</v>
       </c>
     </row>
@@ -17067,7 +17073,7 @@
       <c r="H11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I11" s="21">
+      <c r="I11" s="18">
         <v>40</v>
       </c>
       <c r="J11" s="3" t="s">
@@ -17076,7 +17082,7 @@
       <c r="K11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L11" s="15" t="s">
+      <c r="L11" s="12" t="s">
         <v>17</v>
       </c>
     </row>
@@ -17105,7 +17111,7 @@
       <c r="H12" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I12" s="21">
+      <c r="I12" s="18">
         <v>20</v>
       </c>
       <c r="J12" s="3" t="s">
@@ -17114,7 +17120,7 @@
       <c r="K12" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L12" s="15" t="s">
+      <c r="L12" s="12" t="s">
         <v>17</v>
       </c>
     </row>
@@ -17143,7 +17149,7 @@
       <c r="H13" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="I13" s="21">
+      <c r="I13" s="18">
         <v>35</v>
       </c>
       <c r="J13" s="3" t="s">
@@ -17152,7 +17158,7 @@
       <c r="K13" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L13" s="15" t="s">
+      <c r="L13" s="12" t="s">
         <v>30</v>
       </c>
     </row>
@@ -17181,7 +17187,7 @@
       <c r="H14" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="I14" s="21">
+      <c r="I14" s="18">
         <v>15</v>
       </c>
       <c r="J14" s="3" t="s">
@@ -17190,7 +17196,7 @@
       <c r="K14" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L14" s="15" t="s">
+      <c r="L14" s="12" t="s">
         <v>30</v>
       </c>
     </row>
@@ -17219,7 +17225,7 @@
       <c r="H15" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="I15" s="21">
+      <c r="I15" s="18">
         <v>18</v>
       </c>
       <c r="J15" s="3" t="s">
@@ -17228,7 +17234,7 @@
       <c r="K15" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L15" s="15" t="s">
+      <c r="L15" s="12" t="s">
         <v>30</v>
       </c>
     </row>
@@ -17257,7 +17263,7 @@
       <c r="H16" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="I16" s="21">
+      <c r="I16" s="18">
         <v>12</v>
       </c>
       <c r="J16" s="3" t="s">
@@ -17266,7 +17272,7 @@
       <c r="K16" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L16" s="15" t="s">
+      <c r="L16" s="12" t="s">
         <v>30</v>
       </c>
     </row>
@@ -17295,7 +17301,7 @@
       <c r="H17" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="I17" s="21">
+      <c r="I17" s="18">
         <v>27</v>
       </c>
       <c r="J17" s="3" t="s">
@@ -17304,7 +17310,7 @@
       <c r="K17" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L17" s="15" t="s">
+      <c r="L17" s="12" t="s">
         <v>17</v>
       </c>
     </row>
@@ -17333,7 +17339,7 @@
       <c r="H18" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="I18" s="21">
+      <c r="I18" s="18">
         <v>18</v>
       </c>
       <c r="J18" s="3" t="s">
@@ -17342,7 +17348,7 @@
       <c r="K18" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L18" s="15" t="s">
+      <c r="L18" s="12" t="s">
         <v>17</v>
       </c>
     </row>
@@ -17371,7 +17377,7 @@
       <c r="H19" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="I19" s="21">
+      <c r="I19" s="18">
         <v>20</v>
       </c>
       <c r="J19" s="3" t="s">
@@ -17380,7 +17386,7 @@
       <c r="K19" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L19" s="15" t="s">
+      <c r="L19" s="12" t="s">
         <v>17</v>
       </c>
     </row>
@@ -17409,7 +17415,7 @@
       <c r="H20" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="I20" s="21">
+      <c r="I20" s="18">
         <v>40</v>
       </c>
       <c r="J20" s="3" t="s">
@@ -17418,7 +17424,7 @@
       <c r="K20" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L20" s="15" t="s">
+      <c r="L20" s="12" t="s">
         <v>58</v>
       </c>
     </row>
@@ -17447,7 +17453,7 @@
       <c r="H21" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="I21" s="21">
+      <c r="I21" s="18">
         <v>35</v>
       </c>
       <c r="J21" s="3" t="s">
@@ -17456,7 +17462,7 @@
       <c r="K21" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L21" s="15" t="s">
+      <c r="L21" s="12" t="s">
         <v>63</v>
       </c>
     </row>
@@ -17485,7 +17491,7 @@
       <c r="H22" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="I22" s="21">
+      <c r="I22" s="18">
         <v>12</v>
       </c>
       <c r="J22" s="3" t="s">
@@ -17494,7 +17500,7 @@
       <c r="K22" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L22" s="15" t="s">
+      <c r="L22" s="12" t="s">
         <v>68</v>
       </c>
     </row>
@@ -17523,7 +17529,7 @@
       <c r="H23" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="I23" s="21">
+      <c r="I23" s="18">
         <v>24</v>
       </c>
       <c r="J23" s="3" t="s">
@@ -17532,7 +17538,7 @@
       <c r="K23" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L23" s="15" t="s">
+      <c r="L23" s="12" t="s">
         <v>68</v>
       </c>
     </row>
@@ -17561,7 +17567,7 @@
       <c r="H24" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="I24" s="21">
+      <c r="I24" s="18">
         <v>85</v>
       </c>
       <c r="J24" s="3" t="s">
@@ -17570,7 +17576,7 @@
       <c r="K24" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L24" s="15" t="s">
+      <c r="L24" s="12" t="s">
         <v>68</v>
       </c>
     </row>
@@ -17599,7 +17605,7 @@
       <c r="H25" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="I25" s="21">
+      <c r="I25" s="18">
         <v>16</v>
       </c>
       <c r="J25" s="3" t="s">
@@ -17608,7 +17614,7 @@
       <c r="K25" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L25" s="15" t="s">
+      <c r="L25" s="12" t="s">
         <v>17</v>
       </c>
     </row>
@@ -17637,7 +17643,7 @@
       <c r="H26" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="I26" s="21">
+      <c r="I26" s="18">
         <v>28</v>
       </c>
       <c r="J26" s="3" t="s">
@@ -17646,7 +17652,7 @@
       <c r="K26" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L26" s="15" t="s">
+      <c r="L26" s="12" t="s">
         <v>17</v>
       </c>
     </row>
@@ -17675,7 +17681,7 @@
       <c r="H27" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="I27" s="21">
+      <c r="I27" s="18">
         <v>26</v>
       </c>
       <c r="J27" s="3" t="s">
@@ -17684,7 +17690,7 @@
       <c r="K27" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L27" s="15" t="s">
+      <c r="L27" s="12" t="s">
         <v>17</v>
       </c>
     </row>
@@ -17713,7 +17719,7 @@
       <c r="H28" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="I28" s="21">
+      <c r="I28" s="18">
         <v>35</v>
       </c>
       <c r="J28" s="3" t="s">
@@ -17722,7 +17728,7 @@
       <c r="K28" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L28" s="15" t="s">
+      <c r="L28" s="12" t="s">
         <v>63</v>
       </c>
     </row>
@@ -17751,7 +17757,7 @@
       <c r="H29" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="I29" s="21">
+      <c r="I29" s="18">
         <v>12</v>
       </c>
       <c r="J29" s="3" t="s">
@@ -17760,7 +17766,7 @@
       <c r="K29" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L29" s="15" t="s">
+      <c r="L29" s="12" t="s">
         <v>90</v>
       </c>
     </row>
@@ -17789,7 +17795,7 @@
       <c r="H30" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="I30" s="21">
+      <c r="I30" s="18">
         <v>28</v>
       </c>
       <c r="J30" s="3" t="s">
@@ -17798,7 +17804,7 @@
       <c r="K30" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L30" s="15" t="s">
+      <c r="L30" s="12" t="s">
         <v>90</v>
       </c>
     </row>
@@ -17827,7 +17833,7 @@
       <c r="H31" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="I31" s="21">
+      <c r="I31" s="18">
         <v>84</v>
       </c>
       <c r="J31" s="3" t="s">
@@ -17836,7 +17842,7 @@
       <c r="K31" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L31" s="15" t="s">
+      <c r="L31" s="12" t="s">
         <v>90</v>
       </c>
     </row>
@@ -17865,7 +17871,7 @@
       <c r="H32" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="I32" s="21">
+      <c r="I32" s="18">
         <v>95</v>
       </c>
       <c r="J32" s="3" t="s">
@@ -17874,7 +17880,7 @@
       <c r="K32" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L32" s="15" t="s">
+      <c r="L32" s="12" t="s">
         <v>63</v>
       </c>
     </row>
@@ -17903,7 +17909,7 @@
       <c r="H33" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="I33" s="21">
+      <c r="I33" s="18">
         <v>30</v>
       </c>
       <c r="J33" s="3" t="s">
@@ -17912,7 +17918,7 @@
       <c r="K33" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L33" s="15" t="s">
+      <c r="L33" s="12" t="s">
         <v>63</v>
       </c>
     </row>
@@ -17941,7 +17947,7 @@
       <c r="H34" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="I34" s="21">
+      <c r="I34" s="18">
         <v>12</v>
       </c>
       <c r="J34" s="3" t="s">
@@ -17950,7 +17956,7 @@
       <c r="K34" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L34" s="15" t="s">
+      <c r="L34" s="12" t="s">
         <v>90</v>
       </c>
     </row>
@@ -17979,7 +17985,7 @@
       <c r="H35" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="I35" s="21">
+      <c r="I35" s="18">
         <v>20</v>
       </c>
       <c r="J35" s="3" t="s">
@@ -17988,7 +17994,7 @@
       <c r="K35" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L35" s="15" t="s">
+      <c r="L35" s="12" t="s">
         <v>114</v>
       </c>
     </row>
@@ -18017,7 +18023,7 @@
       <c r="H36" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="I36" s="21">
+      <c r="I36" s="18">
         <v>47</v>
       </c>
       <c r="J36" s="3" t="s">
@@ -18026,7 +18032,7 @@
       <c r="K36" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L36" s="15" t="s">
+      <c r="L36" s="12" t="s">
         <v>63</v>
       </c>
     </row>
@@ -18055,7 +18061,7 @@
       <c r="H37" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="I37" s="21">
+      <c r="I37" s="18">
         <v>15</v>
       </c>
       <c r="J37" s="3" t="s">
@@ -18064,7 +18070,7 @@
       <c r="K37" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L37" s="15" t="s">
+      <c r="L37" s="12" t="s">
         <v>63</v>
       </c>
     </row>
@@ -18093,7 +18099,7 @@
       <c r="H38" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="I38" s="21">
+      <c r="I38" s="18">
         <v>8</v>
       </c>
       <c r="J38" s="3" t="s">
@@ -18102,7 +18108,7 @@
       <c r="K38" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L38" s="15" t="s">
+      <c r="L38" s="12" t="s">
         <v>63</v>
       </c>
     </row>
@@ -18131,7 +18137,7 @@
       <c r="H39" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="I39" s="21">
+      <c r="I39" s="18">
         <v>8</v>
       </c>
       <c r="J39" s="3" t="s">
@@ -18140,7 +18146,7 @@
       <c r="K39" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L39" s="15" t="s">
+      <c r="L39" s="12" t="s">
         <v>63</v>
       </c>
     </row>
@@ -18169,7 +18175,7 @@
       <c r="H40" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="I40" s="21">
+      <c r="I40" s="18">
         <v>22</v>
       </c>
       <c r="J40" s="3" t="s">
@@ -18178,7 +18184,7 @@
       <c r="K40" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L40" s="15" t="s">
+      <c r="L40" s="12" t="s">
         <v>17</v>
       </c>
     </row>
@@ -18207,7 +18213,7 @@
       <c r="H41" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="I41" s="21">
+      <c r="I41" s="18">
         <v>48</v>
       </c>
       <c r="J41" s="3" t="s">
@@ -18216,7 +18222,7 @@
       <c r="K41" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L41" s="15" t="s">
+      <c r="L41" s="12" t="s">
         <v>17</v>
       </c>
     </row>
@@ -18245,7 +18251,7 @@
       <c r="H42" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="I42" s="21">
+      <c r="I42" s="18">
         <v>20</v>
       </c>
       <c r="J42" s="3" t="s">
@@ -18254,7 +18260,7 @@
       <c r="K42" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L42" s="15" t="s">
+      <c r="L42" s="12" t="s">
         <v>17</v>
       </c>
     </row>
@@ -18283,7 +18289,7 @@
       <c r="H43" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="I43" s="21">
+      <c r="I43" s="18">
         <v>55</v>
       </c>
       <c r="J43" s="3" t="s">
@@ -18292,7 +18298,7 @@
       <c r="K43" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L43" s="15" t="s">
+      <c r="L43" s="12" t="s">
         <v>141</v>
       </c>
     </row>
@@ -18321,7 +18327,7 @@
       <c r="H44" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="I44" s="21">
+      <c r="I44" s="18">
         <v>14</v>
       </c>
       <c r="J44" s="3" t="s">
@@ -18330,7 +18336,7 @@
       <c r="K44" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L44" s="15" t="s">
+      <c r="L44" s="12" t="s">
         <v>146</v>
       </c>
     </row>
@@ -18359,7 +18365,7 @@
       <c r="H45" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="I45" s="21">
+      <c r="I45" s="18">
         <v>22</v>
       </c>
       <c r="J45" s="3" t="s">
@@ -18368,7 +18374,7 @@
       <c r="K45" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L45" s="15" t="s">
+      <c r="L45" s="12" t="s">
         <v>146</v>
       </c>
     </row>
@@ -18397,7 +18403,7 @@
       <c r="H46" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="I46" s="21">
+      <c r="I46" s="18">
         <v>95</v>
       </c>
       <c r="J46" s="3" t="s">
@@ -18406,7 +18412,7 @@
       <c r="K46" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L46" s="15" t="s">
+      <c r="L46" s="12" t="s">
         <v>146</v>
       </c>
     </row>
@@ -18435,7 +18441,7 @@
       <c r="H47" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="I47" s="21">
+      <c r="I47" s="18">
         <v>40</v>
       </c>
       <c r="J47" s="3" t="s">
@@ -18444,7 +18450,7 @@
       <c r="K47" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L47" s="15" t="s">
+      <c r="L47" s="12" t="s">
         <v>156</v>
       </c>
     </row>
@@ -18473,7 +18479,7 @@
       <c r="H48" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="I48" s="21">
+      <c r="I48" s="18">
         <v>30</v>
       </c>
       <c r="J48" s="3" t="s">
@@ -18482,7 +18488,7 @@
       <c r="K48" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L48" s="15" t="s">
+      <c r="L48" s="12" t="s">
         <v>146</v>
       </c>
     </row>
@@ -18511,7 +18517,7 @@
       <c r="H49" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="I49" s="21">
+      <c r="I49" s="18">
         <v>15</v>
       </c>
       <c r="J49" s="3" t="s">
@@ -18520,7 +18526,7 @@
       <c r="K49" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L49" s="15" t="s">
+      <c r="L49" s="12" t="s">
         <v>146</v>
       </c>
     </row>
@@ -18549,7 +18555,7 @@
       <c r="H50" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="I50" s="21">
+      <c r="I50" s="18">
         <v>4</v>
       </c>
       <c r="J50" s="3" t="s">
@@ -18558,7 +18564,7 @@
       <c r="K50" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L50" s="15" t="s">
+      <c r="L50" s="12" t="s">
         <v>146</v>
       </c>
     </row>
@@ -18587,7 +18593,7 @@
       <c r="H51" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="I51" s="21">
+      <c r="I51" s="18">
         <v>6</v>
       </c>
       <c r="J51" s="3" t="s">
@@ -18596,7 +18602,7 @@
       <c r="K51" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L51" s="15" t="s">
+      <c r="L51" s="12" t="s">
         <v>146</v>
       </c>
     </row>
@@ -18625,7 +18631,7 @@
       <c r="H52" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="I52" s="21">
+      <c r="I52" s="18">
         <v>25</v>
       </c>
       <c r="J52" s="3" t="s">
@@ -18634,7 +18640,7 @@
       <c r="K52" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L52" s="15" t="s">
+      <c r="L52" s="12" t="s">
         <v>146</v>
       </c>
     </row>
@@ -18663,7 +18669,7 @@
       <c r="H53" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="I53" s="21">
+      <c r="I53" s="18">
         <v>20</v>
       </c>
       <c r="J53" s="3" t="s">
@@ -18672,7 +18678,7 @@
       <c r="K53" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L53" s="15" t="s">
+      <c r="L53" s="12" t="s">
         <v>17</v>
       </c>
     </row>
@@ -18701,7 +18707,7 @@
       <c r="H54" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="I54" s="21">
+      <c r="I54" s="18">
         <v>20</v>
       </c>
       <c r="J54" s="3" t="s">
@@ -18710,7 +18716,7 @@
       <c r="K54" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L54" s="15" t="s">
+      <c r="L54" s="12" t="s">
         <v>17</v>
       </c>
     </row>
@@ -18739,7 +18745,7 @@
       <c r="H55" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="I55" s="21">
+      <c r="I55" s="18">
         <v>24</v>
       </c>
       <c r="J55" s="3" t="s">
@@ -18748,7 +18754,7 @@
       <c r="K55" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L55" s="15" t="s">
+      <c r="L55" s="12" t="s">
         <v>17</v>
       </c>
     </row>
@@ -18777,7 +18783,7 @@
       <c r="H56" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="I56" s="21">
+      <c r="I56" s="18">
         <v>50</v>
       </c>
       <c r="J56" s="3" t="s">
@@ -18786,7 +18792,7 @@
       <c r="K56" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L56" s="15" t="s">
+      <c r="L56" s="12" t="s">
         <v>146</v>
       </c>
     </row>
@@ -18815,7 +18821,7 @@
       <c r="H57" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="I57" s="21">
+      <c r="I57" s="18">
         <v>24</v>
       </c>
       <c r="J57" s="3" t="s">
@@ -18824,7 +18830,7 @@
       <c r="K57" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L57" s="15" t="s">
+      <c r="L57" s="12" t="s">
         <v>146</v>
       </c>
     </row>
@@ -18853,7 +18859,7 @@
       <c r="H58" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="I58" s="21">
+      <c r="I58" s="18">
         <v>95</v>
       </c>
       <c r="J58" s="3" t="s">
@@ -18862,7 +18868,7 @@
       <c r="K58" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L58" s="15" t="s">
+      <c r="L58" s="12" t="s">
         <v>63</v>
       </c>
     </row>
@@ -18891,7 +18897,7 @@
       <c r="H59" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="I59" s="21">
+      <c r="I59" s="18">
         <v>55</v>
       </c>
       <c r="J59" s="3" t="s">
@@ -18900,7 +18906,7 @@
       <c r="K59" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L59" s="15" t="s">
+      <c r="L59" s="12" t="s">
         <v>146</v>
       </c>
     </row>
@@ -18929,7 +18935,7 @@
       <c r="H60" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="I60" s="21">
+      <c r="I60" s="18">
         <v>30</v>
       </c>
       <c r="J60" s="3" t="s">
@@ -18938,7 +18944,7 @@
       <c r="K60" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L60" s="15" t="s">
+      <c r="L60" s="12" t="s">
         <v>146</v>
       </c>
     </row>
@@ -18967,7 +18973,7 @@
       <c r="H61" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="I61" s="21">
+      <c r="I61" s="18">
         <v>18</v>
       </c>
       <c r="J61" s="3" t="s">
@@ -18976,7 +18982,7 @@
       <c r="K61" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L61" s="15" t="s">
+      <c r="L61" s="12" t="s">
         <v>146</v>
       </c>
     </row>
@@ -19005,7 +19011,7 @@
       <c r="H62" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="I62" s="21">
+      <c r="I62" s="18">
         <v>8</v>
       </c>
       <c r="J62" s="3" t="s">
@@ -19014,7 +19020,7 @@
       <c r="K62" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L62" s="15" t="s">
+      <c r="L62" s="12" t="s">
         <v>146</v>
       </c>
     </row>
@@ -19043,7 +19049,7 @@
       <c r="H63" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="I63" s="21">
+      <c r="I63" s="18">
         <v>40</v>
       </c>
       <c r="J63" s="3" t="s">
@@ -19052,7 +19058,7 @@
       <c r="K63" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L63" s="15" t="s">
+      <c r="L63" s="12" t="s">
         <v>146</v>
       </c>
     </row>
@@ -19081,7 +19087,7 @@
       <c r="H64" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="I64" s="21">
+      <c r="I64" s="18">
         <v>35</v>
       </c>
       <c r="J64" s="3" t="s">
@@ -19090,7 +19096,7 @@
       <c r="K64" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L64" s="15" t="s">
+      <c r="L64" s="12" t="s">
         <v>211</v>
       </c>
     </row>
@@ -19119,7 +19125,7 @@
       <c r="H65" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="I65" s="21">
+      <c r="I65" s="18">
         <v>22</v>
       </c>
       <c r="J65" s="3" t="s">
@@ -19128,7 +19134,7 @@
       <c r="K65" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L65" s="15" t="s">
+      <c r="L65" s="12" t="s">
         <v>17</v>
       </c>
     </row>
@@ -19157,7 +19163,7 @@
       <c r="H66" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="I66" s="21">
+      <c r="I66" s="18">
         <v>80</v>
       </c>
       <c r="J66" s="3" t="s">
@@ -19166,7 +19172,7 @@
       <c r="K66" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L66" s="15" t="s">
+      <c r="L66" s="12" t="s">
         <v>17</v>
       </c>
     </row>
@@ -19195,7 +19201,7 @@
       <c r="H67" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="I67" s="21">
+      <c r="I67" s="18">
         <v>76</v>
       </c>
       <c r="J67" s="3" t="s">
@@ -19204,7 +19210,7 @@
       <c r="K67" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L67" s="15" t="s">
+      <c r="L67" s="12" t="s">
         <v>17</v>
       </c>
     </row>
@@ -19233,7 +19239,7 @@
       <c r="H68" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="I68" s="21">
+      <c r="I68" s="18">
         <v>60</v>
       </c>
       <c r="J68" s="3" t="s">
@@ -19242,7 +19248,7 @@
       <c r="K68" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L68" s="15" t="s">
+      <c r="L68" s="12" t="s">
         <v>211</v>
       </c>
     </row>
@@ -19271,7 +19277,7 @@
       <c r="H69" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="I69" s="21">
+      <c r="I69" s="18">
         <v>24</v>
       </c>
       <c r="J69" s="3" t="s">
@@ -19280,7 +19286,7 @@
       <c r="K69" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L69" s="15" t="s">
+      <c r="L69" s="12" t="s">
         <v>211</v>
       </c>
     </row>
@@ -19309,7 +19315,7 @@
       <c r="H70" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="I70" s="21">
+      <c r="I70" s="18">
         <v>24</v>
       </c>
       <c r="J70" s="3" t="s">
@@ -19318,7 +19324,7 @@
       <c r="K70" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L70" s="15" t="s">
+      <c r="L70" s="12" t="s">
         <v>211</v>
       </c>
     </row>
@@ -19347,7 +19353,7 @@
       <c r="H71" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="I71" s="21">
+      <c r="I71" s="18">
         <v>45</v>
       </c>
       <c r="J71" s="3" t="s">
@@ -19356,7 +19362,7 @@
       <c r="K71" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L71" s="15" t="s">
+      <c r="L71" s="12" t="s">
         <v>211</v>
       </c>
     </row>
@@ -19385,7 +19391,7 @@
       <c r="H72" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="I72" s="21">
+      <c r="I72" s="18">
         <v>50</v>
       </c>
       <c r="J72" s="3" t="s">
@@ -19394,7 +19400,7 @@
       <c r="K72" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L72" s="15" t="s">
+      <c r="L72" s="12" t="s">
         <v>238</v>
       </c>
     </row>
@@ -19423,7 +19429,7 @@
       <c r="H73" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="I73" s="21">
+      <c r="I73" s="18">
         <v>60</v>
       </c>
       <c r="J73" s="3" t="s">
@@ -19432,7 +19438,7 @@
       <c r="K73" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L73" s="15" t="s">
+      <c r="L73" s="12" t="s">
         <v>243</v>
       </c>
     </row>
@@ -19461,7 +19467,7 @@
       <c r="H74" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="I74" s="21">
+      <c r="I74" s="18">
         <v>30</v>
       </c>
       <c r="J74" s="3" t="s">
@@ -19470,7 +19476,7 @@
       <c r="K74" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L74" s="15" t="s">
+      <c r="L74" s="12" t="s">
         <v>243</v>
       </c>
     </row>
@@ -19499,7 +19505,7 @@
       <c r="H75" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="I75" s="21">
+      <c r="I75" s="18">
         <v>16</v>
       </c>
       <c r="J75" s="3" t="s">
@@ -19508,7 +19514,7 @@
       <c r="K75" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L75" s="15" t="s">
+      <c r="L75" s="12" t="s">
         <v>243</v>
       </c>
     </row>
@@ -19537,7 +19543,7 @@
       <c r="H76" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="I76" s="21">
+      <c r="I76" s="18">
         <v>10</v>
       </c>
       <c r="J76" s="3" t="s">
@@ -19546,7 +19552,7 @@
       <c r="K76" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L76" s="15" t="s">
+      <c r="L76" s="12" t="s">
         <v>243</v>
       </c>
     </row>
@@ -19575,7 +19581,7 @@
       <c r="H77" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="I77" s="21">
+      <c r="I77" s="18">
         <v>50</v>
       </c>
       <c r="J77" s="3" t="s">
@@ -19584,7 +19590,7 @@
       <c r="K77" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L77" s="15" t="s">
+      <c r="L77" s="12" t="s">
         <v>211</v>
       </c>
     </row>
@@ -19613,7 +19619,7 @@
       <c r="H78" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="I78" s="21">
+      <c r="I78" s="18">
         <v>40</v>
       </c>
       <c r="J78" s="3" t="s">
@@ -19622,7 +19628,7 @@
       <c r="K78" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L78" s="15" t="s">
+      <c r="L78" s="12" t="s">
         <v>211</v>
       </c>
     </row>
@@ -19651,7 +19657,7 @@
       <c r="H79" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="I79" s="21">
+      <c r="I79" s="18">
         <v>80</v>
       </c>
       <c r="J79" s="3" t="s">
@@ -19660,7 +19666,7 @@
       <c r="K79" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L79" s="15" t="s">
+      <c r="L79" s="12" t="s">
         <v>211</v>
       </c>
     </row>
@@ -19689,7 +19695,7 @@
       <c r="H80" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="I80" s="21">
+      <c r="I80" s="18">
         <v>22</v>
       </c>
       <c r="J80" s="3" t="s">
@@ -19698,7 +19704,7 @@
       <c r="K80" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L80" s="15" t="s">
+      <c r="L80" s="12" t="s">
         <v>211</v>
       </c>
     </row>
@@ -19727,7 +19733,7 @@
       <c r="H81" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="I81" s="21">
+      <c r="I81" s="18">
         <v>18</v>
       </c>
       <c r="J81" s="3" t="s">
@@ -19736,7 +19742,7 @@
       <c r="K81" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L81" s="15" t="s">
+      <c r="L81" s="12" t="s">
         <v>211</v>
       </c>
     </row>
@@ -19765,7 +19771,7 @@
       <c r="H82" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="I82" s="21">
+      <c r="I82" s="18">
         <v>65</v>
       </c>
       <c r="J82" s="3" t="s">
@@ -19774,7 +19780,7 @@
       <c r="K82" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L82" s="15" t="s">
+      <c r="L82" s="12" t="s">
         <v>211</v>
       </c>
     </row>
@@ -19803,7 +19809,7 @@
       <c r="H83" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="I83" s="21">
+      <c r="I83" s="18">
         <v>50</v>
       </c>
       <c r="J83" s="3" t="s">
@@ -19812,7 +19818,7 @@
       <c r="K83" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L83" s="15" t="s">
+      <c r="L83" s="12" t="s">
         <v>211</v>
       </c>
     </row>
@@ -19841,7 +19847,7 @@
       <c r="H84" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="I84" s="21">
+      <c r="I84" s="18">
         <v>44</v>
       </c>
       <c r="J84" s="3" t="s">
@@ -19850,7 +19856,7 @@
       <c r="K84" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L84" s="15" t="s">
+      <c r="L84" s="12" t="s">
         <v>211</v>
       </c>
     </row>
@@ -19879,7 +19885,7 @@
       <c r="H85" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="I85" s="21">
+      <c r="I85" s="18">
         <v>28</v>
       </c>
       <c r="J85" s="3" t="s">
@@ -19888,7 +19894,7 @@
       <c r="K85" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L85" s="15" t="s">
+      <c r="L85" s="12" t="s">
         <v>211</v>
       </c>
     </row>
@@ -19917,7 +19923,7 @@
       <c r="H86" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="I86" s="21">
+      <c r="I86" s="18">
         <v>95</v>
       </c>
       <c r="J86" s="3" t="s">
@@ -19926,7 +19932,7 @@
       <c r="K86" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L86" s="15" t="s">
+      <c r="L86" s="12" t="s">
         <v>211</v>
       </c>
     </row>
@@ -19955,7 +19961,7 @@
       <c r="H87" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="I87" s="21">
+      <c r="I87" s="18">
         <v>80</v>
       </c>
       <c r="J87" s="3" t="s">
@@ -19964,7 +19970,7 @@
       <c r="K87" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L87" s="15" t="s">
+      <c r="L87" s="12" t="s">
         <v>211</v>
       </c>
     </row>
@@ -19993,7 +19999,7 @@
       <c r="H88" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="I88" s="21">
+      <c r="I88" s="18">
         <v>20</v>
       </c>
       <c r="J88" s="3" t="s">
@@ -20002,7 +20008,7 @@
       <c r="K88" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L88" s="15" t="s">
+      <c r="L88" s="12" t="s">
         <v>300</v>
       </c>
     </row>
@@ -20031,7 +20037,7 @@
       <c r="H89" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="I89" s="21">
+      <c r="I89" s="18">
         <v>22</v>
       </c>
       <c r="J89" s="3" t="s">
@@ -20040,7 +20046,7 @@
       <c r="K89" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L89" s="15" t="s">
+      <c r="L89" s="12" t="s">
         <v>300</v>
       </c>
     </row>
@@ -20069,7 +20075,7 @@
       <c r="H90" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="I90" s="21">
+      <c r="I90" s="18">
         <v>84</v>
       </c>
       <c r="J90" s="3" t="s">
@@ -20078,7 +20084,7 @@
       <c r="K90" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L90" s="15" t="s">
+      <c r="L90" s="12" t="s">
         <v>308</v>
       </c>
     </row>
@@ -20107,7 +20113,7 @@
       <c r="H91" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="I91" s="21">
+      <c r="I91" s="18">
         <v>75</v>
       </c>
       <c r="J91" s="3" t="s">
@@ -20116,7 +20122,7 @@
       <c r="K91" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L91" s="15" t="s">
+      <c r="L91" s="12" t="s">
         <v>211</v>
       </c>
     </row>
@@ -20145,7 +20151,7 @@
       <c r="H92" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="I92" s="21">
+      <c r="I92" s="18">
         <v>80</v>
       </c>
       <c r="J92" s="3" t="s">
@@ -20154,7 +20160,7 @@
       <c r="K92" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L92" s="15" t="s">
+      <c r="L92" s="12" t="s">
         <v>211</v>
       </c>
     </row>
@@ -20183,7 +20189,7 @@
       <c r="H93" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="I93" s="21">
+      <c r="I93" s="18">
         <v>48</v>
       </c>
       <c r="J93" s="3" t="s">
@@ -20192,7 +20198,7 @@
       <c r="K93" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L93" s="15" t="s">
+      <c r="L93" s="12" t="s">
         <v>17</v>
       </c>
     </row>
@@ -20221,7 +20227,7 @@
       <c r="H94" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="I94" s="21">
+      <c r="I94" s="18">
         <v>64</v>
       </c>
       <c r="J94" s="3" t="s">
@@ -20230,7 +20236,7 @@
       <c r="K94" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L94" s="15" t="s">
+      <c r="L94" s="12" t="s">
         <v>17</v>
       </c>
     </row>
@@ -20259,7 +20265,7 @@
       <c r="H95" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="I95" s="21">
+      <c r="I95" s="18">
         <v>28</v>
       </c>
       <c r="J95" s="3" t="s">
@@ -20268,7 +20274,7 @@
       <c r="K95" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L95" s="15" t="s">
+      <c r="L95" s="12" t="s">
         <v>17</v>
       </c>
     </row>
@@ -20297,7 +20303,7 @@
       <c r="H96" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="I96" s="21">
+      <c r="I96" s="18">
         <v>65</v>
       </c>
       <c r="J96" s="3" t="s">
@@ -20306,7 +20312,7 @@
       <c r="K96" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L96" s="15" t="s">
+      <c r="L96" s="12" t="s">
         <v>68</v>
       </c>
     </row>
@@ -20335,7 +20341,7 @@
       <c r="H97" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="I97" s="21">
+      <c r="I97" s="18">
         <v>28</v>
       </c>
       <c r="J97" s="3" t="s">
@@ -20344,7 +20350,7 @@
       <c r="K97" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L97" s="15" t="s">
+      <c r="L97" s="12" t="s">
         <v>68</v>
       </c>
     </row>
@@ -20373,7 +20379,7 @@
       <c r="H98" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="I98" s="21">
+      <c r="I98" s="18">
         <v>85</v>
       </c>
       <c r="J98" s="3" t="s">
@@ -20382,7 +20388,7 @@
       <c r="K98" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L98" s="15" t="s">
+      <c r="L98" s="12" t="s">
         <v>68</v>
       </c>
     </row>
@@ -20411,7 +20417,7 @@
       <c r="H99" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="I99" s="21">
+      <c r="I99" s="18">
         <v>95</v>
       </c>
       <c r="J99" s="3" t="s">
@@ -20420,7 +20426,7 @@
       <c r="K99" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L99" s="15" t="s">
+      <c r="L99" s="12" t="s">
         <v>68</v>
       </c>
     </row>
@@ -20449,7 +20455,7 @@
       <c r="H100" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="I100" s="21">
+      <c r="I100" s="18">
         <v>30</v>
       </c>
       <c r="J100" s="3" t="s">
@@ -20458,7 +20464,7 @@
       <c r="K100" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L100" s="15" t="s">
+      <c r="L100" s="12" t="s">
         <v>68</v>
       </c>
     </row>
@@ -20487,7 +20493,7 @@
       <c r="H101" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="I101" s="21">
+      <c r="I101" s="18">
         <v>125</v>
       </c>
       <c r="J101" s="3" t="s">
@@ -20496,7 +20502,7 @@
       <c r="K101" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L101" s="15" t="s">
+      <c r="L101" s="12" t="s">
         <v>68</v>
       </c>
     </row>
@@ -20525,7 +20531,7 @@
       <c r="H102" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="I102" s="21">
+      <c r="I102" s="18">
         <v>48</v>
       </c>
       <c r="J102" s="3" t="s">
@@ -20534,7 +20540,7 @@
       <c r="K102" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L102" s="15" t="s">
+      <c r="L102" s="12" t="s">
         <v>346</v>
       </c>
     </row>
@@ -20563,7 +20569,7 @@
       <c r="H103" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="I103" s="21">
+      <c r="I103" s="18">
         <v>28</v>
       </c>
       <c r="J103" s="3" t="s">
@@ -20572,7 +20578,7 @@
       <c r="K103" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L103" s="15" t="s">
+      <c r="L103" s="12" t="s">
         <v>68</v>
       </c>
     </row>
@@ -20601,7 +20607,7 @@
       <c r="H104" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="I104" s="21">
+      <c r="I104" s="18">
         <v>16</v>
       </c>
       <c r="J104" s="3" t="s">
@@ -20610,7 +20616,7 @@
       <c r="K104" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L104" s="15" t="s">
+      <c r="L104" s="12" t="s">
         <v>346</v>
       </c>
     </row>
@@ -20639,7 +20645,7 @@
       <c r="H105" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="I105" s="21">
+      <c r="I105" s="18">
         <v>15</v>
       </c>
       <c r="J105" s="3" t="s">
@@ -20648,7 +20654,7 @@
       <c r="K105" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L105" s="15" t="s">
+      <c r="L105" s="12" t="s">
         <v>346</v>
       </c>
     </row>
@@ -20677,7 +20683,7 @@
       <c r="H106" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="I106" s="21">
+      <c r="I106" s="18">
         <v>4</v>
       </c>
       <c r="J106" s="3" t="s">
@@ -20686,7 +20692,7 @@
       <c r="K106" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L106" s="15" t="s">
+      <c r="L106" s="12" t="s">
         <v>68</v>
       </c>
     </row>
@@ -20715,7 +20721,7 @@
       <c r="H107" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="I107" s="21">
+      <c r="I107" s="18">
         <v>18</v>
       </c>
       <c r="J107" s="3" t="s">
@@ -20724,7 +20730,7 @@
       <c r="K107" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L107" s="15" t="s">
+      <c r="L107" s="12" t="s">
         <v>68</v>
       </c>
     </row>
@@ -20753,7 +20759,7 @@
       <c r="H108" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="I108" s="21">
+      <c r="I108" s="18">
         <v>4</v>
       </c>
       <c r="J108" s="3" t="s">
@@ -20762,7 +20768,7 @@
       <c r="K108" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L108" s="15" t="s">
+      <c r="L108" s="12" t="s">
         <v>68</v>
       </c>
     </row>
@@ -20791,7 +20797,7 @@
       <c r="H109" s="3" t="s">
         <v>364</v>
       </c>
-      <c r="I109" s="21">
+      <c r="I109" s="18">
         <v>20</v>
       </c>
       <c r="J109" s="3" t="s">
@@ -20800,7 +20806,7 @@
       <c r="K109" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L109" s="15" t="s">
+      <c r="L109" s="12" t="s">
         <v>63</v>
       </c>
     </row>
@@ -20829,7 +20835,7 @@
       <c r="H110" s="3" t="s">
         <v>364</v>
       </c>
-      <c r="I110" s="21">
+      <c r="I110" s="18">
         <v>22</v>
       </c>
       <c r="J110" s="3" t="s">
@@ -20838,7 +20844,7 @@
       <c r="K110" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L110" s="15" t="s">
+      <c r="L110" s="12" t="s">
         <v>63</v>
       </c>
     </row>
@@ -20867,7 +20873,7 @@
       <c r="H111" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="I111" s="21">
+      <c r="I111" s="18">
         <v>48</v>
       </c>
       <c r="J111" s="3" t="s">
@@ -20876,7 +20882,7 @@
       <c r="K111" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L111" s="15" t="s">
+      <c r="L111" s="12" t="s">
         <v>346</v>
       </c>
     </row>
@@ -20905,7 +20911,7 @@
       <c r="H112" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="I112" s="21">
+      <c r="I112" s="18">
         <v>55</v>
       </c>
       <c r="J112" s="3" t="s">
@@ -20914,7 +20920,7 @@
       <c r="K112" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L112" s="15" t="s">
+      <c r="L112" s="12" t="s">
         <v>63</v>
       </c>
     </row>
@@ -20943,7 +20949,7 @@
       <c r="H113" s="3" t="s">
         <v>377</v>
       </c>
-      <c r="I113" s="21">
+      <c r="I113" s="18">
         <v>14</v>
       </c>
       <c r="J113" s="3" t="s">
@@ -20952,7 +20958,7 @@
       <c r="K113" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L113" s="15" t="s">
+      <c r="L113" s="12" t="s">
         <v>378</v>
       </c>
     </row>
@@ -20981,7 +20987,7 @@
       <c r="H114" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="I114" s="21">
+      <c r="I114" s="18">
         <v>30</v>
       </c>
       <c r="J114" s="3" t="s">
@@ -20990,7 +20996,7 @@
       <c r="K114" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L114" s="15" t="s">
+      <c r="L114" s="12" t="s">
         <v>68</v>
       </c>
     </row>
@@ -21019,7 +21025,7 @@
       <c r="H115" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="I115" s="21">
+      <c r="I115" s="18">
         <v>16</v>
       </c>
       <c r="J115" s="3" t="s">
@@ -21028,7 +21034,7 @@
       <c r="K115" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L115" s="15" t="s">
+      <c r="L115" s="12" t="s">
         <v>68</v>
       </c>
     </row>
@@ -21057,7 +21063,7 @@
       <c r="H116" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="I116" s="21">
+      <c r="I116" s="18">
         <v>85</v>
       </c>
       <c r="J116" s="3" t="s">
@@ -21066,7 +21072,7 @@
       <c r="K116" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L116" s="15" t="s">
+      <c r="L116" s="12" t="s">
         <v>378</v>
       </c>
     </row>
@@ -21095,7 +21101,7 @@
       <c r="H117" s="3" t="s">
         <v>390</v>
       </c>
-      <c r="I117" s="21">
+      <c r="I117" s="18">
         <v>35</v>
       </c>
       <c r="J117" s="3" t="s">
@@ -21104,7 +21110,7 @@
       <c r="K117" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L117" s="15" t="s">
+      <c r="L117" s="12" t="s">
         <v>17</v>
       </c>
     </row>
@@ -21133,7 +21139,7 @@
       <c r="H118" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="I118" s="21">
+      <c r="I118" s="18">
         <v>57</v>
       </c>
       <c r="J118" s="3" t="s">
@@ -21142,7 +21148,7 @@
       <c r="K118" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L118" s="15" t="s">
+      <c r="L118" s="12" t="s">
         <v>17</v>
       </c>
     </row>
@@ -21171,7 +21177,7 @@
       <c r="H119" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="I119" s="21">
+      <c r="I119" s="18">
         <v>40</v>
       </c>
       <c r="J119" s="3" t="s">
@@ -21180,7 +21186,7 @@
       <c r="K119" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L119" s="15" t="s">
+      <c r="L119" s="12" t="s">
         <v>17</v>
       </c>
     </row>
@@ -21209,7 +21215,7 @@
       <c r="H120" s="3" t="s">
         <v>401</v>
       </c>
-      <c r="I120" s="21">
+      <c r="I120" s="18">
         <v>16</v>
       </c>
       <c r="J120" s="3" t="s">
@@ -21218,7 +21224,7 @@
       <c r="K120" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L120" s="15" t="s">
+      <c r="L120" s="12" t="s">
         <v>378</v>
       </c>
     </row>
@@ -21247,7 +21253,7 @@
       <c r="H121" s="3" t="s">
         <v>404</v>
       </c>
-      <c r="I121" s="21">
+      <c r="I121" s="18">
         <v>30</v>
       </c>
       <c r="J121" s="3" t="s">
@@ -21256,7 +21262,7 @@
       <c r="K121" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L121" s="15" t="s">
+      <c r="L121" s="12" t="s">
         <v>378</v>
       </c>
     </row>
@@ -21285,7 +21291,7 @@
       <c r="H122" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="I122" s="21">
+      <c r="I122" s="18">
         <v>50</v>
       </c>
       <c r="J122" s="3" t="s">
@@ -21294,7 +21300,7 @@
       <c r="K122" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L122" s="15" t="s">
+      <c r="L122" s="12" t="s">
         <v>68</v>
       </c>
     </row>
@@ -21323,7 +21329,7 @@
       <c r="H123" s="3" t="s">
         <v>412</v>
       </c>
-      <c r="I123" s="21">
+      <c r="I123" s="18">
         <v>140</v>
       </c>
       <c r="J123" s="3" t="s">
@@ -21332,7 +21338,7 @@
       <c r="K123" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L123" s="15" t="s">
+      <c r="L123" s="12" t="s">
         <v>378</v>
       </c>
     </row>
@@ -21361,7 +21367,7 @@
       <c r="H124" s="3" t="s">
         <v>416</v>
       </c>
-      <c r="I124" s="21">
+      <c r="I124" s="18">
         <v>88</v>
       </c>
       <c r="J124" s="3" t="s">
@@ -21370,7 +21376,7 @@
       <c r="K124" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L124" s="15" t="s">
+      <c r="L124" s="12" t="s">
         <v>378</v>
       </c>
     </row>
@@ -21399,7 +21405,7 @@
       <c r="H125" s="3" t="s">
         <v>420</v>
       </c>
-      <c r="I125" s="21">
+      <c r="I125" s="18">
         <v>30</v>
       </c>
       <c r="J125" s="3" t="s">
@@ -21408,7 +21414,7 @@
       <c r="K125" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L125" s="15" t="s">
+      <c r="L125" s="12" t="s">
         <v>421</v>
       </c>
     </row>
@@ -21437,7 +21443,7 @@
       <c r="H126" s="3" t="s">
         <v>424</v>
       </c>
-      <c r="I126" s="21">
+      <c r="I126" s="18">
         <v>26</v>
       </c>
       <c r="J126" s="3" t="s">
@@ -21446,7 +21452,7 @@
       <c r="K126" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L126" s="15" t="s">
+      <c r="L126" s="12" t="s">
         <v>421</v>
       </c>
     </row>
@@ -21475,7 +21481,7 @@
       <c r="H127" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="I127" s="21">
+      <c r="I127" s="18">
         <v>28</v>
       </c>
       <c r="J127" s="3" t="s">
@@ -21484,7 +21490,7 @@
       <c r="K127" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L127" s="15" t="s">
+      <c r="L127" s="12" t="s">
         <v>429</v>
       </c>
     </row>
@@ -21513,7 +21519,7 @@
       <c r="H128" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="I128" s="21">
+      <c r="I128" s="18">
         <v>100</v>
       </c>
       <c r="J128" s="3" t="s">
@@ -21522,7 +21528,7 @@
       <c r="K128" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L128" s="15" t="s">
+      <c r="L128" s="12" t="s">
         <v>421</v>
       </c>
     </row>
@@ -21551,7 +21557,7 @@
       <c r="H129" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="I129" s="21">
+      <c r="I129" s="18">
         <v>35</v>
       </c>
       <c r="J129" s="3" t="s">
@@ -21560,7 +21566,7 @@
       <c r="K129" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L129" s="15" t="s">
+      <c r="L129" s="12" t="s">
         <v>421</v>
       </c>
     </row>
@@ -21589,7 +21595,7 @@
       <c r="H130" s="3" t="s">
         <v>441</v>
       </c>
-      <c r="I130" s="21">
+      <c r="I130" s="18">
         <v>35</v>
       </c>
       <c r="J130" s="3" t="s">
@@ -21598,7 +21604,7 @@
       <c r="K130" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L130" s="15" t="s">
+      <c r="L130" s="12" t="s">
         <v>17</v>
       </c>
     </row>
@@ -21627,7 +21633,7 @@
       <c r="H131" s="3" t="s">
         <v>444</v>
       </c>
-      <c r="I131" s="21">
+      <c r="I131" s="18">
         <v>22</v>
       </c>
       <c r="J131" s="3" t="s">
@@ -21636,7 +21642,7 @@
       <c r="K131" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L131" s="15" t="s">
+      <c r="L131" s="12" t="s">
         <v>300</v>
       </c>
     </row>
@@ -21665,7 +21671,7 @@
       <c r="H132" s="3" t="s">
         <v>444</v>
       </c>
-      <c r="I132" s="21">
+      <c r="I132" s="18">
         <v>40</v>
       </c>
       <c r="J132" s="3" t="s">
@@ -21674,7 +21680,7 @@
       <c r="K132" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L132" s="15" t="s">
+      <c r="L132" s="12" t="s">
         <v>300</v>
       </c>
     </row>
@@ -21703,7 +21709,7 @@
       <c r="H133" s="3" t="s">
         <v>449</v>
       </c>
-      <c r="I133" s="21">
+      <c r="I133" s="18">
         <v>45</v>
       </c>
       <c r="J133" s="3" t="s">
@@ -21712,7 +21718,7 @@
       <c r="K133" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L133" s="15" t="s">
+      <c r="L133" s="12" t="s">
         <v>421</v>
       </c>
     </row>
@@ -21741,7 +21747,7 @@
       <c r="H134" s="3" t="s">
         <v>452</v>
       </c>
-      <c r="I134" s="21">
+      <c r="I134" s="18">
         <v>26</v>
       </c>
       <c r="J134" s="3" t="s">
@@ -21750,7 +21756,7 @@
       <c r="K134" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L134" s="15" t="s">
+      <c r="L134" s="12" t="s">
         <v>421</v>
       </c>
     </row>
@@ -21779,7 +21785,7 @@
       <c r="H135" s="3" t="s">
         <v>455</v>
       </c>
-      <c r="I135" s="21">
+      <c r="I135" s="18">
         <v>42</v>
       </c>
       <c r="J135" s="3" t="s">
@@ -21788,7 +21794,7 @@
       <c r="K135" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L135" s="15" t="s">
+      <c r="L135" s="12" t="s">
         <v>429</v>
       </c>
     </row>
@@ -21817,7 +21823,7 @@
       <c r="H136" s="3" t="s">
         <v>459</v>
       </c>
-      <c r="I136" s="21">
+      <c r="I136" s="18">
         <v>45</v>
       </c>
       <c r="J136" s="3" t="s">
@@ -21826,7 +21832,7 @@
       <c r="K136" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L136" s="15" t="s">
+      <c r="L136" s="12" t="s">
         <v>308</v>
       </c>
     </row>
@@ -21855,7 +21861,7 @@
       <c r="H137" s="3" t="s">
         <v>463</v>
       </c>
-      <c r="I137" s="21">
+      <c r="I137" s="18">
         <v>62</v>
       </c>
       <c r="J137" s="3" t="s">
@@ -21864,7 +21870,7 @@
       <c r="K137" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L137" s="15" t="s">
+      <c r="L137" s="12" t="s">
         <v>17</v>
       </c>
     </row>
@@ -21893,7 +21899,7 @@
       <c r="H138" s="3" t="s">
         <v>463</v>
       </c>
-      <c r="I138" s="21">
+      <c r="I138" s="18">
         <v>63</v>
       </c>
       <c r="J138" s="3" t="s">
@@ -21902,7 +21908,7 @@
       <c r="K138" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L138" s="15" t="s">
+      <c r="L138" s="12" t="s">
         <v>17</v>
       </c>
     </row>
@@ -21931,7 +21937,7 @@
       <c r="H139" s="3" t="s">
         <v>468</v>
       </c>
-      <c r="I139" s="21">
+      <c r="I139" s="18">
         <v>22</v>
       </c>
       <c r="J139" s="3" t="s">
@@ -21940,7 +21946,7 @@
       <c r="K139" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L139" s="15" t="s">
+      <c r="L139" s="12" t="s">
         <v>469</v>
       </c>
     </row>
@@ -21969,7 +21975,7 @@
       <c r="H140" s="3" t="s">
         <v>472</v>
       </c>
-      <c r="I140" s="21">
+      <c r="I140" s="18">
         <v>30</v>
       </c>
       <c r="J140" s="3" t="s">
@@ -21978,7 +21984,7 @@
       <c r="K140" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L140" s="15" t="s">
+      <c r="L140" s="12" t="s">
         <v>469</v>
       </c>
     </row>
@@ -22007,7 +22013,7 @@
       <c r="H141" s="3" t="s">
         <v>476</v>
       </c>
-      <c r="I141" s="21">
+      <c r="I141" s="18">
         <v>10</v>
       </c>
       <c r="J141" s="3" t="s">
@@ -22016,7 +22022,7 @@
       <c r="K141" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L141" s="15" t="s">
+      <c r="L141" s="12" t="s">
         <v>429</v>
       </c>
     </row>
@@ -22045,7 +22051,7 @@
       <c r="H142" s="3" t="s">
         <v>476</v>
       </c>
-      <c r="I142" s="21">
+      <c r="I142" s="18">
         <v>30</v>
       </c>
       <c r="J142" s="3" t="s">
@@ -22054,7 +22060,7 @@
       <c r="K142" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L142" s="15" t="s">
+      <c r="L142" s="12" t="s">
         <v>429</v>
       </c>
     </row>
@@ -22083,7 +22089,7 @@
       <c r="H143" s="3" t="s">
         <v>481</v>
       </c>
-      <c r="I143" s="21">
+      <c r="I143" s="18">
         <v>26</v>
       </c>
       <c r="J143" s="3" t="s">
@@ -22092,7 +22098,7 @@
       <c r="K143" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L143" s="15" t="s">
+      <c r="L143" s="12" t="s">
         <v>421</v>
       </c>
     </row>
@@ -22121,7 +22127,7 @@
       <c r="H144" s="3" t="s">
         <v>485</v>
       </c>
-      <c r="I144" s="21">
+      <c r="I144" s="18">
         <v>30</v>
       </c>
       <c r="J144" s="3" t="s">
@@ -22130,7 +22136,7 @@
       <c r="K144" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L144" s="15" t="s">
+      <c r="L144" s="12" t="s">
         <v>486</v>
       </c>
     </row>
@@ -22159,7 +22165,7 @@
       <c r="H145" s="3" t="s">
         <v>490</v>
       </c>
-      <c r="I145" s="21">
+      <c r="I145" s="18">
         <v>26</v>
       </c>
       <c r="J145" s="3" t="s">
@@ -22168,7 +22174,7 @@
       <c r="K145" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L145" s="15" t="s">
+      <c r="L145" s="12" t="s">
         <v>486</v>
       </c>
     </row>
@@ -22197,7 +22203,7 @@
       <c r="H146" s="3" t="s">
         <v>494</v>
       </c>
-      <c r="I146" s="21">
+      <c r="I146" s="18">
         <v>28</v>
       </c>
       <c r="J146" s="3" t="s">
@@ -22206,7 +22212,7 @@
       <c r="K146" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L146" s="15" t="s">
+      <c r="L146" s="12" t="s">
         <v>486</v>
       </c>
     </row>
@@ -22235,7 +22241,7 @@
       <c r="H147" s="3" t="s">
         <v>498</v>
       </c>
-      <c r="I147" s="21">
+      <c r="I147" s="18">
         <v>90</v>
       </c>
       <c r="J147" s="3" t="s">
@@ -22244,7 +22250,7 @@
       <c r="K147" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L147" s="15" t="s">
+      <c r="L147" s="12" t="s">
         <v>486</v>
       </c>
     </row>
@@ -22273,7 +22279,7 @@
       <c r="H148" s="3" t="s">
         <v>502</v>
       </c>
-      <c r="I148" s="21">
+      <c r="I148" s="18">
         <v>30</v>
       </c>
       <c r="J148" s="3" t="s">
@@ -22282,7 +22288,7 @@
       <c r="K148" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L148" s="15" t="s">
+      <c r="L148" s="12" t="s">
         <v>421</v>
       </c>
     </row>
@@ -22311,7 +22317,7 @@
       <c r="H149" s="3" t="s">
         <v>506</v>
       </c>
-      <c r="I149" s="21">
+      <c r="I149" s="18">
         <v>28</v>
       </c>
       <c r="J149" s="3" t="s">
@@ -22320,7 +22326,7 @@
       <c r="K149" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L149" s="15" t="s">
+      <c r="L149" s="12" t="s">
         <v>486</v>
       </c>
     </row>
@@ -22349,7 +22355,7 @@
       <c r="H150" s="3" t="s">
         <v>510</v>
       </c>
-      <c r="I150" s="21">
+      <c r="I150" s="18">
         <v>36</v>
       </c>
       <c r="J150" s="3" t="s">
@@ -22358,7 +22364,7 @@
       <c r="K150" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L150" s="15" t="s">
+      <c r="L150" s="12" t="s">
         <v>486</v>
       </c>
     </row>
@@ -22387,7 +22393,7 @@
       <c r="H151" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="I151" s="21">
+      <c r="I151" s="18">
         <v>40</v>
       </c>
       <c r="J151" s="3" t="s">
@@ -22396,7 +22402,7 @@
       <c r="K151" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L151" s="15" t="s">
+      <c r="L151" s="12" t="s">
         <v>486</v>
       </c>
     </row>
@@ -22425,7 +22431,7 @@
       <c r="H152" s="3" t="s">
         <v>518</v>
       </c>
-      <c r="I152" s="21">
+      <c r="I152" s="18">
         <v>22</v>
       </c>
       <c r="J152" s="3" t="s">
@@ -22434,7 +22440,7 @@
       <c r="K152" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L152" s="15" t="s">
+      <c r="L152" s="12" t="s">
         <v>486</v>
       </c>
     </row>
@@ -22463,7 +22469,7 @@
       <c r="H153" s="3" t="s">
         <v>522</v>
       </c>
-      <c r="I153" s="21">
+      <c r="I153" s="18">
         <v>65</v>
       </c>
       <c r="J153" s="3" t="s">
@@ -22472,7 +22478,7 @@
       <c r="K153" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L153" s="15" t="s">
+      <c r="L153" s="12" t="s">
         <v>523</v>
       </c>
     </row>
@@ -22501,7 +22507,7 @@
       <c r="H154" s="3" t="s">
         <v>525</v>
       </c>
-      <c r="I154" s="21">
+      <c r="I154" s="18">
         <v>16</v>
       </c>
       <c r="J154" s="3" t="s">
@@ -22510,7 +22516,7 @@
       <c r="K154" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L154" s="15" t="s">
+      <c r="L154" s="12" t="s">
         <v>523</v>
       </c>
     </row>
@@ -22539,7 +22545,7 @@
       <c r="H155" s="3" t="s">
         <v>529</v>
       </c>
-      <c r="I155" s="21">
+      <c r="I155" s="18">
         <v>16</v>
       </c>
       <c r="J155" s="3" t="s">
@@ -22548,7 +22554,7 @@
       <c r="K155" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L155" s="15" t="s">
+      <c r="L155" s="12" t="s">
         <v>523</v>
       </c>
     </row>
@@ -22577,7 +22583,7 @@
       <c r="H156" s="3" t="s">
         <v>533</v>
       </c>
-      <c r="I156" s="21">
+      <c r="I156" s="18">
         <v>94</v>
       </c>
       <c r="J156" s="3" t="s">
@@ -22586,7 +22592,7 @@
       <c r="K156" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L156" s="15" t="s">
+      <c r="L156" s="12" t="s">
         <v>523</v>
       </c>
     </row>
@@ -22615,7 +22621,7 @@
       <c r="H157" s="3" t="s">
         <v>536</v>
       </c>
-      <c r="I157" s="21">
+      <c r="I157" s="18">
         <v>35</v>
       </c>
       <c r="J157" s="3" t="s">
@@ -22624,7 +22630,7 @@
       <c r="K157" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L157" s="15" t="s">
+      <c r="L157" s="12" t="s">
         <v>537</v>
       </c>
     </row>
@@ -22653,7 +22659,7 @@
       <c r="H158" s="3" t="s">
         <v>541</v>
       </c>
-      <c r="I158" s="21">
+      <c r="I158" s="18">
         <v>87</v>
       </c>
       <c r="J158" s="3" t="s">
@@ -22662,7 +22668,7 @@
       <c r="K158" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L158" s="15" t="s">
+      <c r="L158" s="12" t="s">
         <v>17</v>
       </c>
     </row>
@@ -22691,7 +22697,7 @@
       <c r="H159" s="3" t="s">
         <v>541</v>
       </c>
-      <c r="I159" s="21">
+      <c r="I159" s="18">
         <v>47</v>
       </c>
       <c r="J159" s="3" t="s">
@@ -22700,7 +22706,7 @@
       <c r="K159" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L159" s="15" t="s">
+      <c r="L159" s="12" t="s">
         <v>17</v>
       </c>
     </row>
@@ -22729,7 +22735,7 @@
       <c r="H160" s="3" t="s">
         <v>547</v>
       </c>
-      <c r="I160" s="21">
+      <c r="I160" s="18">
         <v>30</v>
       </c>
       <c r="J160" s="3" t="s">
@@ -22738,7 +22744,7 @@
       <c r="K160" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L160" s="15" t="s">
+      <c r="L160" s="12" t="s">
         <v>17</v>
       </c>
     </row>
@@ -22767,7 +22773,7 @@
       <c r="H161" s="3" t="s">
         <v>551</v>
       </c>
-      <c r="I161" s="21">
+      <c r="I161" s="18">
         <v>24</v>
       </c>
       <c r="J161" s="3" t="s">
@@ -22776,7 +22782,7 @@
       <c r="K161" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L161" s="15" t="s">
+      <c r="L161" s="12" t="s">
         <v>308</v>
       </c>
     </row>
@@ -22805,7 +22811,7 @@
       <c r="H162" s="3" t="s">
         <v>551</v>
       </c>
-      <c r="I162" s="21">
+      <c r="I162" s="18">
         <v>25</v>
       </c>
       <c r="J162" s="3" t="s">
@@ -22814,7 +22820,7 @@
       <c r="K162" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L162" s="15" t="s">
+      <c r="L162" s="12" t="s">
         <v>308</v>
       </c>
     </row>
@@ -22843,7 +22849,7 @@
       <c r="H163" s="3" t="s">
         <v>557</v>
       </c>
-      <c r="I163" s="21">
+      <c r="I163" s="18">
         <v>95</v>
       </c>
       <c r="J163" s="3" t="s">
@@ -22852,7 +22858,7 @@
       <c r="K163" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L163" s="15" t="s">
+      <c r="L163" s="12" t="s">
         <v>308</v>
       </c>
     </row>
@@ -22881,7 +22887,7 @@
       <c r="H164" s="3" t="s">
         <v>561</v>
       </c>
-      <c r="I164" s="21">
+      <c r="I164" s="18">
         <v>80</v>
       </c>
       <c r="J164" s="3" t="s">
@@ -22890,7 +22896,7 @@
       <c r="K164" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L164" s="15" t="s">
+      <c r="L164" s="12" t="s">
         <v>308</v>
       </c>
     </row>
@@ -22919,7 +22925,7 @@
       <c r="H165" s="3" t="s">
         <v>565</v>
       </c>
-      <c r="I165" s="21">
+      <c r="I165" s="18">
         <v>118</v>
       </c>
       <c r="J165" s="3" t="s">
@@ -22928,7 +22934,7 @@
       <c r="K165" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L165" s="15" t="s">
+      <c r="L165" s="12" t="s">
         <v>566</v>
       </c>
     </row>
@@ -22957,7 +22963,7 @@
       <c r="H166" s="3" t="s">
         <v>570</v>
       </c>
-      <c r="I166" s="21">
+      <c r="I166" s="18">
         <v>10</v>
       </c>
       <c r="J166" s="3" t="s">
@@ -22966,7 +22972,7 @@
       <c r="K166" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L166" s="15" t="s">
+      <c r="L166" s="12" t="s">
         <v>566</v>
       </c>
     </row>
@@ -22995,7 +23001,7 @@
       <c r="H167" s="3" t="s">
         <v>574</v>
       </c>
-      <c r="I167" s="21">
+      <c r="I167" s="18">
         <v>14</v>
       </c>
       <c r="J167" s="3" t="s">
@@ -23004,7 +23010,7 @@
       <c r="K167" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L167" s="15" t="s">
+      <c r="L167" s="12" t="s">
         <v>566</v>
       </c>
     </row>
@@ -23033,7 +23039,7 @@
       <c r="H168" s="3" t="s">
         <v>578</v>
       </c>
-      <c r="I168" s="21">
+      <c r="I168" s="18">
         <v>77</v>
       </c>
       <c r="J168" s="3" t="s">
@@ -23042,7 +23048,7 @@
       <c r="K168" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L168" s="15" t="s">
+      <c r="L168" s="12" t="s">
         <v>566</v>
       </c>
     </row>
@@ -23071,7 +23077,7 @@
       <c r="H169" s="3" t="s">
         <v>581</v>
       </c>
-      <c r="I169" s="21">
+      <c r="I169" s="18">
         <v>35</v>
       </c>
       <c r="J169" s="3" t="s">
@@ -23080,7 +23086,7 @@
       <c r="K169" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L169" s="15" t="s">
+      <c r="L169" s="12" t="s">
         <v>566</v>
       </c>
     </row>
@@ -23109,7 +23115,7 @@
       <c r="H170" s="3" t="s">
         <v>585</v>
       </c>
-      <c r="I170" s="21">
+      <c r="I170" s="18">
         <v>40</v>
       </c>
       <c r="J170" s="3" t="s">
@@ -23118,7 +23124,7 @@
       <c r="K170" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L170" s="15" t="s">
+      <c r="L170" s="12" t="s">
         <v>523</v>
       </c>
     </row>
@@ -23147,7 +23153,7 @@
       <c r="H171" s="3" t="s">
         <v>589</v>
       </c>
-      <c r="I171" s="21">
+      <c r="I171" s="18">
         <v>16</v>
       </c>
       <c r="J171" s="3" t="s">
@@ -23156,7 +23162,7 @@
       <c r="K171" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L171" s="15" t="s">
+      <c r="L171" s="12" t="s">
         <v>17</v>
       </c>
     </row>
@@ -23185,7 +23191,7 @@
       <c r="H172" s="3" t="s">
         <v>589</v>
       </c>
-      <c r="I172" s="21">
+      <c r="I172" s="18">
         <v>54</v>
       </c>
       <c r="J172" s="3" t="s">
@@ -23194,7 +23200,7 @@
       <c r="K172" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L172" s="15" t="s">
+      <c r="L172" s="12" t="s">
         <v>17</v>
       </c>
     </row>
@@ -23223,7 +23229,7 @@
       <c r="H173" s="3" t="s">
         <v>595</v>
       </c>
-      <c r="I173" s="21">
+      <c r="I173" s="18">
         <v>10</v>
       </c>
       <c r="J173" s="3" t="s">
@@ -23232,7 +23238,7 @@
       <c r="K173" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L173" s="15" t="s">
+      <c r="L173" s="12" t="s">
         <v>523</v>
       </c>
     </row>
@@ -23261,7 +23267,7 @@
       <c r="H174" s="3" t="s">
         <v>599</v>
       </c>
-      <c r="I174" s="21">
+      <c r="I174" s="18">
         <v>14</v>
       </c>
       <c r="J174" s="3" t="s">
@@ -23270,7 +23276,7 @@
       <c r="K174" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L174" s="15" t="s">
+      <c r="L174" s="12" t="s">
         <v>346</v>
       </c>
     </row>
@@ -23299,7 +23305,7 @@
       <c r="H175" s="3" t="s">
         <v>603</v>
       </c>
-      <c r="I175" s="21">
+      <c r="I175" s="18">
         <v>22</v>
       </c>
       <c r="J175" s="3" t="s">
@@ -23308,7 +23314,7 @@
       <c r="K175" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L175" s="15" t="s">
+      <c r="L175" s="12" t="s">
         <v>523</v>
       </c>
     </row>
@@ -23337,7 +23343,7 @@
       <c r="H176" s="3" t="s">
         <v>603</v>
       </c>
-      <c r="I176" s="21">
+      <c r="I176" s="18">
         <v>14</v>
       </c>
       <c r="J176" s="3" t="s">
@@ -23346,7 +23352,7 @@
       <c r="K176" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L176" s="15" t="s">
+      <c r="L176" s="12" t="s">
         <v>523</v>
       </c>
     </row>
@@ -23375,7 +23381,7 @@
       <c r="H177" s="3" t="s">
         <v>608</v>
       </c>
-      <c r="I177" s="21">
+      <c r="I177" s="18">
         <v>54</v>
       </c>
       <c r="J177" s="3" t="s">
@@ -23384,7 +23390,7 @@
       <c r="K177" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L177" s="15" t="s">
+      <c r="L177" s="12" t="s">
         <v>523</v>
       </c>
     </row>
@@ -23413,7 +23419,7 @@
       <c r="H178" s="3" t="s">
         <v>612</v>
       </c>
-      <c r="I178" s="21">
+      <c r="I178" s="18">
         <v>95</v>
       </c>
       <c r="J178" s="3" t="s">
@@ -23422,7 +23428,7 @@
       <c r="K178" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L178" s="15" t="s">
+      <c r="L178" s="12" t="s">
         <v>523</v>
       </c>
     </row>
@@ -23451,7 +23457,7 @@
       <c r="H179" s="3" t="s">
         <v>615</v>
       </c>
-      <c r="I179" s="21">
+      <c r="I179" s="18">
         <v>86</v>
       </c>
       <c r="J179" s="3" t="s">
@@ -23460,7 +23466,7 @@
       <c r="K179" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L179" s="15" t="s">
+      <c r="L179" s="12" t="s">
         <v>523</v>
       </c>
     </row>
@@ -23489,7 +23495,7 @@
       <c r="H180" s="3" t="s">
         <v>599</v>
       </c>
-      <c r="I180" s="21">
+      <c r="I180" s="18">
         <v>100</v>
       </c>
       <c r="J180" s="3" t="s">
@@ -23498,7 +23504,7 @@
       <c r="K180" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L180" s="15" t="s">
+      <c r="L180" s="12" t="s">
         <v>346</v>
       </c>
     </row>
@@ -23527,7 +23533,7 @@
       <c r="H181" s="3" t="s">
         <v>620</v>
       </c>
-      <c r="I181" s="21">
+      <c r="I181" s="18">
         <v>28</v>
       </c>
       <c r="J181" s="3" t="s">
@@ -23536,7 +23542,7 @@
       <c r="K181" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L181" s="15" t="s">
+      <c r="L181" s="12" t="s">
         <v>621</v>
       </c>
     </row>
@@ -23565,7 +23571,7 @@
       <c r="H182" s="3" t="s">
         <v>620</v>
       </c>
-      <c r="I182" s="21">
+      <c r="I182" s="18">
         <v>12</v>
       </c>
       <c r="J182" s="3" t="s">
@@ -23574,7 +23580,7 @@
       <c r="K182" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L182" s="15" t="s">
+      <c r="L182" s="12" t="s">
         <v>621</v>
       </c>
     </row>
@@ -23603,7 +23609,7 @@
       <c r="H183" s="3" t="s">
         <v>620</v>
       </c>
-      <c r="I183" s="21">
+      <c r="I183" s="18">
         <v>8</v>
       </c>
       <c r="J183" s="3" t="s">
@@ -23612,7 +23618,7 @@
       <c r="K183" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L183" s="15" t="s">
+      <c r="L183" s="12" t="s">
         <v>621</v>
       </c>
     </row>
@@ -23641,7 +23647,7 @@
       <c r="H184" s="3" t="s">
         <v>620</v>
       </c>
-      <c r="I184" s="21">
+      <c r="I184" s="18">
         <v>35</v>
       </c>
       <c r="J184" s="3" t="s">
@@ -23650,7 +23656,7 @@
       <c r="K184" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L184" s="15" t="s">
+      <c r="L184" s="12" t="s">
         <v>621</v>
       </c>
     </row>
@@ -23679,7 +23685,7 @@
       <c r="H185" s="3" t="s">
         <v>630</v>
       </c>
-      <c r="I185" s="21">
+      <c r="I185" s="18">
         <v>12</v>
       </c>
       <c r="J185" s="3" t="s">
@@ -23688,7 +23694,7 @@
       <c r="K185" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L185" s="15" t="s">
+      <c r="L185" s="12" t="s">
         <v>523</v>
       </c>
     </row>
@@ -23717,7 +23723,7 @@
       <c r="H186" s="3" t="s">
         <v>633</v>
       </c>
-      <c r="I186" s="21">
+      <c r="I186" s="18">
         <v>24</v>
       </c>
       <c r="J186" s="3" t="s">
@@ -23726,7 +23732,7 @@
       <c r="K186" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L186" s="15" t="s">
+      <c r="L186" s="12" t="s">
         <v>523</v>
       </c>
     </row>
@@ -23755,7 +23761,7 @@
       <c r="H187" s="3" t="s">
         <v>637</v>
       </c>
-      <c r="I187" s="21">
+      <c r="I187" s="18">
         <v>115</v>
       </c>
       <c r="J187" s="3" t="s">
@@ -23764,7 +23770,7 @@
       <c r="K187" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L187" s="15" t="s">
+      <c r="L187" s="12" t="s">
         <v>523</v>
       </c>
     </row>
@@ -23793,7 +23799,7 @@
       <c r="H188" s="3" t="s">
         <v>641</v>
       </c>
-      <c r="I188" s="21">
+      <c r="I188" s="18">
         <v>61</v>
       </c>
       <c r="J188" s="3" t="s">
@@ -23802,7 +23808,7 @@
       <c r="K188" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L188" s="15" t="s">
+      <c r="L188" s="12" t="s">
         <v>523</v>
       </c>
     </row>
@@ -23831,7 +23837,7 @@
       <c r="H189" s="3" t="s">
         <v>645</v>
       </c>
-      <c r="I189" s="21">
+      <c r="I189" s="18">
         <v>90</v>
       </c>
       <c r="J189" s="3" t="s">
@@ -23840,7 +23846,7 @@
       <c r="K189" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L189" s="15" t="s">
+      <c r="L189" s="12" t="s">
         <v>523</v>
       </c>
     </row>
@@ -23869,7 +23875,7 @@
       <c r="H190" s="3" t="s">
         <v>649</v>
       </c>
-      <c r="I190" s="21">
+      <c r="I190" s="18">
         <v>12</v>
       </c>
       <c r="J190" s="3" t="s">
@@ -23878,7 +23884,7 @@
       <c r="K190" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L190" s="15" t="s">
+      <c r="L190" s="12" t="s">
         <v>17</v>
       </c>
     </row>
@@ -23907,7 +23913,7 @@
       <c r="H191" s="3" t="s">
         <v>649</v>
       </c>
-      <c r="I191" s="21">
+      <c r="I191" s="18">
         <v>36</v>
       </c>
       <c r="J191" s="3" t="s">
@@ -23916,7 +23922,7 @@
       <c r="K191" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L191" s="15" t="s">
+      <c r="L191" s="12" t="s">
         <v>17</v>
       </c>
     </row>
@@ -23945,7 +23951,7 @@
       <c r="H192" s="3" t="s">
         <v>649</v>
       </c>
-      <c r="I192" s="21">
+      <c r="I192" s="18">
         <v>28</v>
       </c>
       <c r="J192" s="3" t="s">
@@ -23954,7 +23960,7 @@
       <c r="K192" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L192" s="15" t="s">
+      <c r="L192" s="12" t="s">
         <v>17</v>
       </c>
     </row>
@@ -23983,7 +23989,7 @@
       <c r="H193" s="3" t="s">
         <v>655</v>
       </c>
-      <c r="I193" s="21">
+      <c r="I193" s="18">
         <v>20</v>
       </c>
       <c r="J193" s="3" t="s">
@@ -23992,7 +23998,7 @@
       <c r="K193" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L193" s="15" t="s">
+      <c r="L193" s="12" t="s">
         <v>523</v>
       </c>
     </row>
@@ -24021,7 +24027,7 @@
       <c r="H194" s="3" t="s">
         <v>659</v>
       </c>
-      <c r="I194" s="21">
+      <c r="I194" s="18">
         <v>76</v>
       </c>
       <c r="J194" s="3" t="s">
@@ -24030,7 +24036,7 @@
       <c r="K194" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L194" s="15" t="s">
+      <c r="L194" s="12" t="s">
         <v>523</v>
       </c>
     </row>
@@ -24059,7 +24065,7 @@
       <c r="H195" s="3" t="s">
         <v>662</v>
       </c>
-      <c r="I195" s="21">
+      <c r="I195" s="18">
         <v>65</v>
       </c>
       <c r="J195" s="3" t="s">
@@ -24068,7 +24074,7 @@
       <c r="K195" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L195" s="15" t="s">
+      <c r="L195" s="12" t="s">
         <v>523</v>
       </c>
     </row>
@@ -24097,7 +24103,7 @@
       <c r="H196" s="3" t="s">
         <v>666</v>
       </c>
-      <c r="I196" s="21">
+      <c r="I196" s="18">
         <v>28</v>
       </c>
       <c r="J196" s="3" t="s">
@@ -24106,7 +24112,7 @@
       <c r="K196" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L196" s="15" t="s">
+      <c r="L196" s="12" t="s">
         <v>523</v>
       </c>
     </row>
@@ -24135,7 +24141,7 @@
       <c r="H197" s="3" t="s">
         <v>670</v>
       </c>
-      <c r="I197" s="21">
+      <c r="I197" s="18">
         <v>50</v>
       </c>
       <c r="J197" s="3" t="s">
@@ -24144,7 +24150,7 @@
       <c r="K197" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L197" s="15" t="s">
+      <c r="L197" s="12" t="s">
         <v>523</v>
       </c>
     </row>
@@ -24173,7 +24179,7 @@
       <c r="H198" s="3" t="s">
         <v>674</v>
       </c>
-      <c r="I198" s="21">
+      <c r="I198" s="18">
         <v>8</v>
       </c>
       <c r="J198" s="3" t="s">
@@ -24182,7 +24188,7 @@
       <c r="K198" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L198" s="15" t="s">
+      <c r="L198" s="12" t="s">
         <v>17</v>
       </c>
     </row>
@@ -24211,7 +24217,7 @@
       <c r="H199" s="3" t="s">
         <v>674</v>
       </c>
-      <c r="I199" s="21">
+      <c r="I199" s="18">
         <v>20</v>
       </c>
       <c r="J199" s="3" t="s">
@@ -24220,7 +24226,7 @@
       <c r="K199" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L199" s="15" t="s">
+      <c r="L199" s="12" t="s">
         <v>17</v>
       </c>
     </row>
@@ -24249,7 +24255,7 @@
       <c r="H200" s="3" t="s">
         <v>674</v>
       </c>
-      <c r="I200" s="21">
+      <c r="I200" s="18">
         <v>6</v>
       </c>
       <c r="J200" s="3" t="s">
@@ -24258,7 +24264,7 @@
       <c r="K200" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L200" s="15" t="s">
+      <c r="L200" s="12" t="s">
         <v>17</v>
       </c>
     </row>
@@ -24287,7 +24293,7 @@
       <c r="H201" s="3" t="s">
         <v>680</v>
       </c>
-      <c r="I201" s="21">
+      <c r="I201" s="18">
         <v>25</v>
       </c>
       <c r="J201" s="3" t="s">
@@ -24296,7 +24302,7 @@
       <c r="K201" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L201" s="15" t="s">
+      <c r="L201" s="12" t="s">
         <v>68</v>
       </c>
     </row>
@@ -24325,7 +24331,7 @@
       <c r="H202" s="3" t="s">
         <v>684</v>
       </c>
-      <c r="I202" s="21">
+      <c r="I202" s="18">
         <v>30</v>
       </c>
       <c r="J202" s="3" t="s">
@@ -24334,7 +24340,7 @@
       <c r="K202" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L202" s="15" t="s">
+      <c r="L202" s="12" t="s">
         <v>68</v>
       </c>
     </row>
@@ -24363,7 +24369,7 @@
       <c r="H203" s="3" t="s">
         <v>688</v>
       </c>
-      <c r="I203" s="21">
+      <c r="I203" s="18">
         <v>8</v>
       </c>
       <c r="J203" s="3" t="s">
@@ -24372,7 +24378,7 @@
       <c r="K203" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L203" s="15" t="s">
+      <c r="L203" s="12" t="s">
         <v>68</v>
       </c>
     </row>
@@ -24401,7 +24407,7 @@
       <c r="H204" s="3" t="s">
         <v>688</v>
       </c>
-      <c r="I204" s="21">
+      <c r="I204" s="18">
         <v>12</v>
       </c>
       <c r="J204" s="3" t="s">
@@ -24410,7 +24416,7 @@
       <c r="K204" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L204" s="15" t="s">
+      <c r="L204" s="12" t="s">
         <v>68</v>
       </c>
     </row>
@@ -24439,7 +24445,7 @@
       <c r="H205" s="3" t="s">
         <v>693</v>
       </c>
-      <c r="I205" s="21">
+      <c r="I205" s="18">
         <v>48</v>
       </c>
       <c r="J205" s="3" t="s">
@@ -24448,7 +24454,7 @@
       <c r="K205" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L205" s="15" t="s">
+      <c r="L205" s="12" t="s">
         <v>68</v>
       </c>
     </row>
@@ -24477,7 +24483,7 @@
       <c r="H206" s="3" t="s">
         <v>697</v>
       </c>
-      <c r="I206" s="21">
+      <c r="I206" s="18">
         <v>14</v>
       </c>
       <c r="J206" s="3" t="s">
@@ -24486,7 +24492,7 @@
       <c r="K206" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L206" s="15" t="s">
+      <c r="L206" s="12" t="s">
         <v>17</v>
       </c>
     </row>
@@ -24515,7 +24521,7 @@
       <c r="H207" s="3" t="s">
         <v>701</v>
       </c>
-      <c r="I207" s="21">
+      <c r="I207" s="18">
         <v>24</v>
       </c>
       <c r="J207" s="3" t="s">
@@ -24524,7 +24530,7 @@
       <c r="K207" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L207" s="15" t="s">
+      <c r="L207" s="12" t="s">
         <v>17</v>
       </c>
     </row>
@@ -24553,7 +24559,7 @@
       <c r="H208" s="3" t="s">
         <v>704</v>
       </c>
-      <c r="I208" s="21">
+      <c r="I208" s="18">
         <v>10</v>
       </c>
       <c r="J208" s="3" t="s">
@@ -24562,7 +24568,7 @@
       <c r="K208" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L208" s="15" t="s">
+      <c r="L208" s="12" t="s">
         <v>17</v>
       </c>
     </row>
@@ -24591,7 +24597,7 @@
       <c r="H209" s="3" t="s">
         <v>707</v>
       </c>
-      <c r="I209" s="21">
+      <c r="I209" s="18">
         <v>25</v>
       </c>
       <c r="J209" s="3" t="s">
@@ -24600,7 +24606,7 @@
       <c r="K209" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L209" s="15" t="s">
+      <c r="L209" s="12" t="s">
         <v>68</v>
       </c>
     </row>
@@ -24629,7 +24635,7 @@
       <c r="H210" s="3" t="s">
         <v>710</v>
       </c>
-      <c r="I210" s="21">
+      <c r="I210" s="18">
         <v>12</v>
       </c>
       <c r="J210" s="3" t="s">
@@ -24638,7 +24644,7 @@
       <c r="K210" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L210" s="15" t="s">
+      <c r="L210" s="12" t="s">
         <v>711</v>
       </c>
     </row>
@@ -24667,7 +24673,7 @@
       <c r="H211" s="3" t="s">
         <v>715</v>
       </c>
-      <c r="I211" s="21">
+      <c r="I211" s="18">
         <v>10</v>
       </c>
       <c r="J211" s="3" t="s">
@@ -24676,7 +24682,7 @@
       <c r="K211" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L211" s="15" t="s">
+      <c r="L211" s="12" t="s">
         <v>711</v>
       </c>
     </row>
@@ -24705,7 +24711,7 @@
       <c r="H212" s="3" t="s">
         <v>718</v>
       </c>
-      <c r="I212" s="21">
+      <c r="I212" s="18">
         <v>45</v>
       </c>
       <c r="J212" s="3" t="s">
@@ -24714,7 +24720,7 @@
       <c r="K212" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L212" s="15" t="s">
+      <c r="L212" s="12" t="s">
         <v>68</v>
       </c>
     </row>
@@ -24743,7 +24749,7 @@
       <c r="H213" s="3" t="s">
         <v>722</v>
       </c>
-      <c r="I213" s="21">
+      <c r="I213" s="18">
         <v>75</v>
       </c>
       <c r="J213" s="3" t="s">
@@ -24752,7 +24758,7 @@
       <c r="K213" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L213" s="15" t="s">
+      <c r="L213" s="12" t="s">
         <v>68</v>
       </c>
     </row>
@@ -24781,7 +24787,7 @@
       <c r="H214" s="3" t="s">
         <v>726</v>
       </c>
-      <c r="I214" s="21">
+      <c r="I214" s="18">
         <v>28</v>
       </c>
       <c r="J214" s="3" t="s">
@@ -24790,7 +24796,7 @@
       <c r="K214" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L214" s="15" t="s">
+      <c r="L214" s="12" t="s">
         <v>17</v>
       </c>
     </row>
@@ -24819,7 +24825,7 @@
       <c r="H215" s="3" t="s">
         <v>729</v>
       </c>
-      <c r="I215" s="21">
+      <c r="I215" s="18">
         <v>58</v>
       </c>
       <c r="J215" s="3" t="s">
@@ -24828,7 +24834,7 @@
       <c r="K215" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L215" s="15" t="s">
+      <c r="L215" s="12" t="s">
         <v>68</v>
       </c>
     </row>
@@ -24857,7 +24863,7 @@
       <c r="H216" s="3" t="s">
         <v>733</v>
       </c>
-      <c r="I216" s="21">
+      <c r="I216" s="18">
         <v>16</v>
       </c>
       <c r="J216" s="3" t="s">
@@ -24866,7 +24872,7 @@
       <c r="K216" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L216" s="15" t="s">
+      <c r="L216" s="12" t="s">
         <v>734</v>
       </c>
     </row>
@@ -24895,7 +24901,7 @@
       <c r="H217" s="3" t="s">
         <v>733</v>
       </c>
-      <c r="I217" s="21">
+      <c r="I217" s="18">
         <v>20</v>
       </c>
       <c r="J217" s="3" t="s">
@@ -24904,7 +24910,7 @@
       <c r="K217" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L217" s="15" t="s">
+      <c r="L217" s="12" t="s">
         <v>734</v>
       </c>
     </row>
@@ -24933,7 +24939,7 @@
       <c r="H218" s="3" t="s">
         <v>740</v>
       </c>
-      <c r="I218" s="21">
+      <c r="I218" s="18">
         <v>38</v>
       </c>
       <c r="J218" s="3" t="s">
@@ -24942,7 +24948,7 @@
       <c r="K218" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L218" s="15" t="s">
+      <c r="L218" s="12" t="s">
         <v>734</v>
       </c>
     </row>
@@ -24971,7 +24977,7 @@
       <c r="H219" s="3" t="s">
         <v>743</v>
       </c>
-      <c r="I219" s="21">
+      <c r="I219" s="18">
         <v>70</v>
       </c>
       <c r="J219" s="3" t="s">
@@ -24980,7 +24986,7 @@
       <c r="K219" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L219" s="15" t="s">
+      <c r="L219" s="12" t="s">
         <v>346</v>
       </c>
     </row>
@@ -25009,7 +25015,7 @@
       <c r="H220" s="3" t="s">
         <v>746</v>
       </c>
-      <c r="I220" s="21">
+      <c r="I220" s="18">
         <v>50</v>
       </c>
       <c r="J220" s="3" t="s">
@@ -25018,7 +25024,7 @@
       <c r="K220" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L220" s="15" t="s">
+      <c r="L220" s="12" t="s">
         <v>346</v>
       </c>
     </row>
@@ -25047,7 +25053,7 @@
       <c r="H221" s="3" t="s">
         <v>749</v>
       </c>
-      <c r="I221" s="21">
+      <c r="I221" s="18">
         <v>30</v>
       </c>
       <c r="J221" s="3" t="s">
@@ -25056,7 +25062,7 @@
       <c r="K221" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L221" s="15" t="s">
+      <c r="L221" s="12" t="s">
         <v>346</v>
       </c>
     </row>
@@ -25085,7 +25091,7 @@
       <c r="H222" s="3" t="s">
         <v>753</v>
       </c>
-      <c r="I222" s="21">
+      <c r="I222" s="18">
         <v>72</v>
       </c>
       <c r="J222" s="3" t="s">
@@ -25094,7 +25100,7 @@
       <c r="K222" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L222" s="15" t="s">
+      <c r="L222" s="12" t="s">
         <v>346</v>
       </c>
     </row>
@@ -25123,7 +25129,7 @@
       <c r="H223" s="3" t="s">
         <v>756</v>
       </c>
-      <c r="I223" s="21">
+      <c r="I223" s="18">
         <v>50</v>
       </c>
       <c r="J223" s="3" t="s">
@@ -25132,7 +25138,7 @@
       <c r="K223" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L223" s="15" t="s">
+      <c r="L223" s="12" t="s">
         <v>346</v>
       </c>
     </row>
@@ -25161,7 +25167,7 @@
       <c r="H224" s="3" t="s">
         <v>759</v>
       </c>
-      <c r="I224" s="21">
+      <c r="I224" s="18">
         <v>55</v>
       </c>
       <c r="J224" s="3" t="s">
@@ -25170,7 +25176,7 @@
       <c r="K224" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L224" s="15" t="s">
+      <c r="L224" s="12" t="s">
         <v>760</v>
       </c>
     </row>
@@ -25199,7 +25205,7 @@
       <c r="H225" s="3" t="s">
         <v>763</v>
       </c>
-      <c r="I225" s="21">
+      <c r="I225" s="18">
         <v>100</v>
       </c>
       <c r="J225" s="3" t="s">
@@ -25208,7 +25214,7 @@
       <c r="K225" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L225" s="15" t="s">
+      <c r="L225" s="12" t="s">
         <v>760</v>
       </c>
     </row>
@@ -25237,7 +25243,7 @@
       <c r="H226" s="3" t="s">
         <v>767</v>
       </c>
-      <c r="I226" s="21">
+      <c r="I226" s="18">
         <v>109</v>
       </c>
       <c r="J226" s="3" t="s">
@@ -25246,7 +25252,7 @@
       <c r="K226" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L226" s="15" t="s">
+      <c r="L226" s="12" t="s">
         <v>760</v>
       </c>
     </row>
@@ -25275,7 +25281,7 @@
       <c r="H227" s="3" t="s">
         <v>771</v>
       </c>
-      <c r="I227" s="21">
+      <c r="I227" s="18">
         <v>84</v>
       </c>
       <c r="J227" s="3" t="s">
@@ -25284,7 +25290,7 @@
       <c r="K227" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L227" s="15" t="s">
+      <c r="L227" s="12" t="s">
         <v>17</v>
       </c>
     </row>
@@ -25313,7 +25319,7 @@
       <c r="H228" s="3" t="s">
         <v>774</v>
       </c>
-      <c r="I228" s="21">
+      <c r="I228" s="18">
         <v>42</v>
       </c>
       <c r="J228" s="3" t="s">
@@ -25322,7 +25328,7 @@
       <c r="K228" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L228" s="15" t="s">
+      <c r="L228" s="12" t="s">
         <v>68</v>
       </c>
     </row>
@@ -25351,7 +25357,7 @@
       <c r="H229" s="3" t="s">
         <v>778</v>
       </c>
-      <c r="I229" s="21">
+      <c r="I229" s="18">
         <v>77</v>
       </c>
       <c r="J229" s="3" t="s">
@@ -25360,7 +25366,7 @@
       <c r="K229" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L229" s="15" t="s">
+      <c r="L229" s="12" t="s">
         <v>68</v>
       </c>
     </row>
@@ -25389,7 +25395,7 @@
       <c r="H230" s="3" t="s">
         <v>782</v>
       </c>
-      <c r="I230" s="21">
+      <c r="I230" s="18">
         <v>160</v>
       </c>
       <c r="J230" s="3" t="s">
@@ -25398,7 +25404,7 @@
       <c r="K230" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L230" s="15" t="s">
+      <c r="L230" s="12" t="s">
         <v>68</v>
       </c>
     </row>
@@ -25427,7 +25433,7 @@
       <c r="H231" s="3" t="s">
         <v>785</v>
       </c>
-      <c r="I231" s="21">
+      <c r="I231" s="18">
         <v>80</v>
       </c>
       <c r="J231" s="3" t="s">
@@ -25436,7 +25442,7 @@
       <c r="K231" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L231" s="15" t="s">
+      <c r="L231" s="12" t="s">
         <v>68</v>
       </c>
     </row>
@@ -25465,7 +25471,7 @@
       <c r="H232" s="3" t="s">
         <v>788</v>
       </c>
-      <c r="I232" s="21">
+      <c r="I232" s="18">
         <v>50</v>
       </c>
       <c r="J232" s="3" t="s">
@@ -25474,7 +25480,7 @@
       <c r="K232" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L232" s="15" t="s">
+      <c r="L232" s="12" t="s">
         <v>734</v>
       </c>
     </row>
@@ -25503,7 +25509,7 @@
       <c r="H233" s="3" t="s">
         <v>791</v>
       </c>
-      <c r="I233" s="21">
+      <c r="I233" s="18">
         <v>44</v>
       </c>
       <c r="J233" s="3" t="s">
@@ -25512,7 +25518,7 @@
       <c r="K233" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L233" s="15" t="s">
+      <c r="L233" s="12" t="s">
         <v>734</v>
       </c>
     </row>
@@ -25541,7 +25547,7 @@
       <c r="H234" s="3" t="s">
         <v>795</v>
       </c>
-      <c r="I234" s="21">
+      <c r="I234" s="18">
         <v>83</v>
       </c>
       <c r="J234" s="3" t="s">
@@ -25550,7 +25556,7 @@
       <c r="K234" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L234" s="15" t="s">
+      <c r="L234" s="12" t="s">
         <v>734</v>
       </c>
     </row>
@@ -25579,7 +25585,7 @@
       <c r="H235" s="3" t="s">
         <v>799</v>
       </c>
-      <c r="I235" s="21">
+      <c r="I235" s="18">
         <v>122</v>
       </c>
       <c r="J235" s="3" t="s">
@@ -25588,7 +25594,7 @@
       <c r="K235" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L235" s="15" t="s">
+      <c r="L235" s="12" t="s">
         <v>68</v>
       </c>
     </row>
@@ -25617,7 +25623,7 @@
       <c r="H236" s="3" t="s">
         <v>802</v>
       </c>
-      <c r="I236" s="21">
+      <c r="I236" s="18">
         <v>85</v>
       </c>
       <c r="J236" s="3" t="s">
@@ -25626,7 +25632,7 @@
       <c r="K236" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L236" s="15" t="s">
+      <c r="L236" s="12" t="s">
         <v>68</v>
       </c>
     </row>
@@ -25655,7 +25661,7 @@
       <c r="H237" s="3" t="s">
         <v>805</v>
       </c>
-      <c r="I237" s="21">
+      <c r="I237" s="18">
         <v>48</v>
       </c>
       <c r="J237" s="3" t="s">
@@ -25664,7 +25670,7 @@
       <c r="K237" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L237" s="15" t="s">
+      <c r="L237" s="12" t="s">
         <v>68</v>
       </c>
     </row>
@@ -25693,7 +25699,7 @@
       <c r="H238" s="3" t="s">
         <v>808</v>
       </c>
-      <c r="I238" s="21">
+      <c r="I238" s="18">
         <v>30</v>
       </c>
       <c r="J238" s="3" t="s">
@@ -25702,7 +25708,7 @@
       <c r="K238" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L238" s="15" t="s">
+      <c r="L238" s="12" t="s">
         <v>68</v>
       </c>
     </row>
@@ -25731,7 +25737,7 @@
       <c r="H239" s="3" t="s">
         <v>812</v>
       </c>
-      <c r="I239" s="21">
+      <c r="I239" s="18">
         <v>95</v>
       </c>
       <c r="J239" s="3" t="s">
@@ -25740,7 +25746,7 @@
       <c r="K239" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L239" s="15" t="s">
+      <c r="L239" s="12" t="s">
         <v>68</v>
       </c>
     </row>
@@ -25769,7 +25775,7 @@
       <c r="H240" s="3" t="s">
         <v>815</v>
       </c>
-      <c r="I240" s="21">
+      <c r="I240" s="18">
         <v>40</v>
       </c>
       <c r="J240" s="3" t="s">
@@ -25778,7 +25784,7 @@
       <c r="K240" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L240" s="15" t="s">
+      <c r="L240" s="12" t="s">
         <v>68</v>
       </c>
     </row>
@@ -25807,7 +25813,7 @@
       <c r="H241" s="3" t="s">
         <v>815</v>
       </c>
-      <c r="I241" s="21">
+      <c r="I241" s="18">
         <v>82</v>
       </c>
       <c r="J241" s="3" t="s">
@@ -25816,7 +25822,7 @@
       <c r="K241" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L241" s="15" t="s">
+      <c r="L241" s="12" t="s">
         <v>68</v>
       </c>
     </row>
@@ -25845,7 +25851,7 @@
       <c r="H242" s="3" t="s">
         <v>821</v>
       </c>
-      <c r="I242" s="21">
+      <c r="I242" s="18">
         <v>42</v>
       </c>
       <c r="J242" s="3" t="s">
@@ -25854,7 +25860,7 @@
       <c r="K242" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L242" s="15" t="s">
+      <c r="L242" s="12" t="s">
         <v>68</v>
       </c>
     </row>
@@ -25883,7 +25889,7 @@
       <c r="H243" s="3" t="s">
         <v>824</v>
       </c>
-      <c r="I243" s="21">
+      <c r="I243" s="18">
         <v>40</v>
       </c>
       <c r="J243" s="3" t="s">
@@ -25892,7 +25898,7 @@
       <c r="K243" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L243" s="15" t="s">
+      <c r="L243" s="12" t="s">
         <v>68</v>
       </c>
     </row>
@@ -25921,7 +25927,7 @@
       <c r="H244" s="3" t="s">
         <v>828</v>
       </c>
-      <c r="I244" s="21">
+      <c r="I244" s="18">
         <v>90</v>
       </c>
       <c r="J244" s="3" t="s">
@@ -25930,7 +25936,7 @@
       <c r="K244" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L244" s="15" t="s">
+      <c r="L244" s="12" t="s">
         <v>68</v>
       </c>
     </row>
@@ -25959,7 +25965,7 @@
       <c r="H245" s="3" t="s">
         <v>832</v>
       </c>
-      <c r="I245" s="21">
+      <c r="I245" s="18">
         <v>55</v>
       </c>
       <c r="J245" s="3" t="s">
@@ -25968,7 +25974,7 @@
       <c r="K245" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L245" s="15" t="s">
+      <c r="L245" s="12" t="s">
         <v>734</v>
       </c>
     </row>
@@ -25997,7 +26003,7 @@
       <c r="H246" s="3" t="s">
         <v>832</v>
       </c>
-      <c r="I246" s="21">
+      <c r="I246" s="18">
         <v>72</v>
       </c>
       <c r="J246" s="3" t="s">
@@ -26006,7 +26012,7 @@
       <c r="K246" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L246" s="15" t="s">
+      <c r="L246" s="12" t="s">
         <v>734</v>
       </c>
     </row>
@@ -26035,7 +26041,7 @@
       <c r="H247" s="3" t="s">
         <v>838</v>
       </c>
-      <c r="I247" s="21">
+      <c r="I247" s="18">
         <v>90</v>
       </c>
       <c r="J247" s="3" t="s">
@@ -26044,7 +26050,7 @@
       <c r="K247" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L247" s="15" t="s">
+      <c r="L247" s="12" t="s">
         <v>734</v>
       </c>
     </row>
@@ -26073,7 +26079,7 @@
       <c r="H248" s="3" t="s">
         <v>842</v>
       </c>
-      <c r="I248" s="21">
+      <c r="I248" s="18">
         <v>40</v>
       </c>
       <c r="J248" s="3" t="s">
@@ -26082,7 +26088,7 @@
       <c r="K248" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L248" s="15" t="s">
+      <c r="L248" s="12" t="s">
         <v>734</v>
       </c>
     </row>
@@ -26111,7 +26117,7 @@
       <c r="H249" s="3" t="s">
         <v>842</v>
       </c>
-      <c r="I249" s="21">
+      <c r="I249" s="18">
         <v>40</v>
       </c>
       <c r="J249" s="3" t="s">
@@ -26120,7 +26126,7 @@
       <c r="K249" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L249" s="15" t="s">
+      <c r="L249" s="12" t="s">
         <v>734</v>
       </c>
     </row>
@@ -26149,7 +26155,7 @@
       <c r="H250" s="3" t="s">
         <v>848</v>
       </c>
-      <c r="I250" s="21">
+      <c r="I250" s="18">
         <v>109</v>
       </c>
       <c r="J250" s="3" t="s">
@@ -26158,7 +26164,7 @@
       <c r="K250" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L250" s="15" t="s">
+      <c r="L250" s="12" t="s">
         <v>734</v>
       </c>
     </row>
@@ -26187,7 +26193,7 @@
       <c r="H251" s="3" t="s">
         <v>852</v>
       </c>
-      <c r="I251" s="21">
+      <c r="I251" s="18">
         <v>109</v>
       </c>
       <c r="J251" s="3" t="s">
@@ -26196,7 +26202,7 @@
       <c r="K251" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L251" s="15" t="s">
+      <c r="L251" s="12" t="s">
         <v>734</v>
       </c>
     </row>
@@ -26225,7 +26231,7 @@
       <c r="H252" s="3" t="s">
         <v>856</v>
       </c>
-      <c r="I252" s="21">
+      <c r="I252" s="18">
         <v>123</v>
       </c>
       <c r="J252" s="3" t="s">
@@ -26234,7 +26240,7 @@
       <c r="K252" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L252" s="15" t="s">
+      <c r="L252" s="12" t="s">
         <v>68</v>
       </c>
     </row>
@@ -26263,7 +26269,7 @@
       <c r="H253" s="3" t="s">
         <v>860</v>
       </c>
-      <c r="I253" s="21">
+      <c r="I253" s="18">
         <v>102</v>
       </c>
       <c r="J253" s="3" t="s">
@@ -26272,7 +26278,7 @@
       <c r="K253" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L253" s="15" t="s">
+      <c r="L253" s="12" t="s">
         <v>346</v>
       </c>
     </row>
@@ -26301,7 +26307,7 @@
       <c r="H254" s="3" t="s">
         <v>863</v>
       </c>
-      <c r="I254" s="21">
+      <c r="I254" s="18">
         <v>95</v>
       </c>
       <c r="J254" s="3" t="s">
@@ -26310,7 +26316,7 @@
       <c r="K254" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L254" s="15" t="s">
+      <c r="L254" s="12" t="s">
         <v>346</v>
       </c>
     </row>
@@ -26339,7 +26345,7 @@
       <c r="H255" s="3" t="s">
         <v>867</v>
       </c>
-      <c r="I255" s="21">
+      <c r="I255" s="18">
         <v>30</v>
       </c>
       <c r="J255" s="3" t="s">
@@ -26348,7 +26354,7 @@
       <c r="K255" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L255" s="15" t="s">
+      <c r="L255" s="12" t="s">
         <v>17</v>
       </c>
     </row>
@@ -26377,7 +26383,7 @@
       <c r="H256" s="3" t="s">
         <v>869</v>
       </c>
-      <c r="I256" s="21">
+      <c r="I256" s="18">
         <v>164</v>
       </c>
       <c r="J256" s="3" t="s">
@@ -26386,7 +26392,7 @@
       <c r="K256" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L256" s="15" t="s">
+      <c r="L256" s="12" t="s">
         <v>17</v>
       </c>
     </row>
@@ -26415,7 +26421,7 @@
       <c r="H257" s="3" t="s">
         <v>872</v>
       </c>
-      <c r="I257" s="21">
+      <c r="I257" s="18">
         <v>60</v>
       </c>
       <c r="J257" s="3" t="s">
@@ -26424,7 +26430,7 @@
       <c r="K257" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L257" s="15" t="s">
+      <c r="L257" s="12" t="s">
         <v>346</v>
       </c>
     </row>
@@ -26453,7 +26459,7 @@
       <c r="H258" s="3" t="s">
         <v>875</v>
       </c>
-      <c r="I258" s="21">
+      <c r="I258" s="18">
         <v>42</v>
       </c>
       <c r="J258" s="3" t="s">
@@ -26462,7 +26468,7 @@
       <c r="K258" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L258" s="15" t="s">
+      <c r="L258" s="12" t="s">
         <v>346</v>
       </c>
     </row>
@@ -26491,7 +26497,7 @@
       <c r="H259" s="3" t="s">
         <v>878</v>
       </c>
-      <c r="I259" s="21">
+      <c r="I259" s="18">
         <v>30</v>
       </c>
       <c r="J259" s="3" t="s">
@@ -26500,7 +26506,7 @@
       <c r="K259" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L259" s="15" t="s">
+      <c r="L259" s="12" t="s">
         <v>346</v>
       </c>
     </row>
@@ -26529,7 +26535,7 @@
       <c r="H260" s="3" t="s">
         <v>881</v>
       </c>
-      <c r="I260" s="21">
+      <c r="I260" s="18">
         <v>109</v>
       </c>
       <c r="J260" s="3" t="s">
@@ -26538,7 +26544,7 @@
       <c r="K260" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L260" s="15" t="s">
+      <c r="L260" s="12" t="s">
         <v>346</v>
       </c>
     </row>
@@ -26567,7 +26573,7 @@
       <c r="H261" s="3" t="s">
         <v>885</v>
       </c>
-      <c r="I261" s="21">
+      <c r="I261" s="18">
         <v>202</v>
       </c>
       <c r="J261" s="3" t="s">
@@ -26576,7 +26582,7 @@
       <c r="K261" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L261" s="15" t="s">
+      <c r="L261" s="12" t="s">
         <v>17</v>
       </c>
     </row>
@@ -26605,7 +26611,7 @@
       <c r="H262" s="3" t="s">
         <v>885</v>
       </c>
-      <c r="I262" s="21">
+      <c r="I262" s="18">
         <v>0</v>
       </c>
       <c r="J262" s="3" t="s">
@@ -26614,7 +26620,7 @@
       <c r="K262" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L262" s="15" t="s">
+      <c r="L262" s="12" t="s">
         <v>17</v>
       </c>
     </row>
@@ -26643,7 +26649,7 @@
       <c r="H263" s="3" t="s">
         <v>875</v>
       </c>
-      <c r="I263" s="21">
+      <c r="I263" s="18">
         <v>44</v>
       </c>
       <c r="J263" s="3" t="s">
@@ -26652,7 +26658,7 @@
       <c r="K263" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L263" s="15" t="s">
+      <c r="L263" s="12" t="s">
         <v>346</v>
       </c>
     </row>
@@ -26681,7 +26687,7 @@
       <c r="H264" s="3" t="s">
         <v>891</v>
       </c>
-      <c r="I264" s="21">
+      <c r="I264" s="18">
         <v>30</v>
       </c>
       <c r="J264" s="3" t="s">
@@ -26690,7 +26696,7 @@
       <c r="K264" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L264" s="15" t="s">
+      <c r="L264" s="12" t="s">
         <v>346</v>
       </c>
     </row>
@@ -26719,7 +26725,7 @@
       <c r="H265" s="3" t="s">
         <v>895</v>
       </c>
-      <c r="I265" s="21">
+      <c r="I265" s="18">
         <v>109</v>
       </c>
       <c r="J265" s="3" t="s">
@@ -26728,7 +26734,7 @@
       <c r="K265" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L265" s="15" t="s">
+      <c r="L265" s="12" t="s">
         <v>346</v>
       </c>
     </row>
@@ -26757,7 +26763,7 @@
       <c r="H266" s="3" t="s">
         <v>898</v>
       </c>
-      <c r="I266" s="21">
+      <c r="I266" s="18">
         <v>30</v>
       </c>
       <c r="J266" s="3" t="s">
@@ -26766,7 +26772,7 @@
       <c r="K266" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L266" s="15" t="s">
+      <c r="L266" s="12" t="s">
         <v>68</v>
       </c>
     </row>
@@ -26795,7 +26801,7 @@
       <c r="H267" s="3" t="s">
         <v>902</v>
       </c>
-      <c r="I267" s="21">
+      <c r="I267" s="18">
         <v>109</v>
       </c>
       <c r="J267" s="3" t="s">
@@ -26804,7 +26810,7 @@
       <c r="K267" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L267" s="15" t="s">
+      <c r="L267" s="12" t="s">
         <v>68</v>
       </c>
     </row>
@@ -26833,7 +26839,7 @@
       <c r="H268" s="3" t="s">
         <v>906</v>
       </c>
-      <c r="I268" s="21">
+      <c r="I268" s="18">
         <v>42</v>
       </c>
       <c r="J268" s="3" t="s">
@@ -26842,7 +26848,7 @@
       <c r="K268" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L268" s="15" t="s">
+      <c r="L268" s="12" t="s">
         <v>17</v>
       </c>
     </row>
@@ -26871,7 +26877,7 @@
       <c r="H269" s="3" t="s">
         <v>906</v>
       </c>
-      <c r="I269" s="21">
+      <c r="I269" s="18">
         <v>36</v>
       </c>
       <c r="J269" s="3" t="s">
@@ -26880,7 +26886,7 @@
       <c r="K269" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L269" s="15" t="s">
+      <c r="L269" s="12" t="s">
         <v>17</v>
       </c>
     </row>
@@ -26909,7 +26915,7 @@
       <c r="H270" s="3" t="s">
         <v>912</v>
       </c>
-      <c r="I270" s="21">
+      <c r="I270" s="18">
         <v>56</v>
       </c>
       <c r="J270" s="3" t="s">
@@ -26918,7 +26924,7 @@
       <c r="K270" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L270" s="15" t="s">
+      <c r="L270" s="12" t="s">
         <v>17</v>
       </c>
     </row>
@@ -26947,7 +26953,7 @@
       <c r="H271" s="3" t="s">
         <v>916</v>
       </c>
-      <c r="I271" s="21">
+      <c r="I271" s="18">
         <v>88</v>
       </c>
       <c r="J271" s="3" t="s">
@@ -26956,7 +26962,7 @@
       <c r="K271" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L271" s="15" t="s">
+      <c r="L271" s="12" t="s">
         <v>346</v>
       </c>
     </row>
@@ -26985,7 +26991,7 @@
       <c r="H272" s="3" t="s">
         <v>919</v>
       </c>
-      <c r="I272" s="21">
+      <c r="I272" s="18">
         <v>16</v>
       </c>
       <c r="J272" s="3" t="s">
@@ -26994,7 +27000,7 @@
       <c r="K272" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L272" s="15" t="s">
+      <c r="L272" s="12" t="s">
         <v>346</v>
       </c>
     </row>
@@ -27023,7 +27029,7 @@
       <c r="H273" s="3" t="s">
         <v>922</v>
       </c>
-      <c r="I273" s="21">
+      <c r="I273" s="18">
         <v>40</v>
       </c>
       <c r="J273" s="3" t="s">
@@ -27032,7 +27038,7 @@
       <c r="K273" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L273" s="15" t="s">
+      <c r="L273" s="12" t="s">
         <v>346</v>
       </c>
     </row>
@@ -27061,7 +27067,7 @@
       <c r="H274" s="3" t="s">
         <v>926</v>
       </c>
-      <c r="I274" s="21">
+      <c r="I274" s="18">
         <v>70</v>
       </c>
       <c r="J274" s="3" t="s">
@@ -27070,7 +27076,7 @@
       <c r="K274" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L274" s="15" t="s">
+      <c r="L274" s="12" t="s">
         <v>346</v>
       </c>
     </row>
@@ -27099,7 +27105,7 @@
       <c r="H275" s="3" t="s">
         <v>930</v>
       </c>
-      <c r="I275" s="21">
+      <c r="I275" s="18">
         <v>102</v>
       </c>
       <c r="J275" s="3" t="s">
@@ -27108,45 +27114,45 @@
       <c r="K275" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L275" s="15" t="s">
+      <c r="L275" s="12" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="276" spans="1:12" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
-      <c r="A276" s="16">
+      <c r="A276" s="13">
         <v>13</v>
       </c>
-      <c r="B276" s="16" t="s">
+      <c r="B276" s="13" t="s">
         <v>950</v>
       </c>
-      <c r="C276" s="16">
+      <c r="C276" s="13">
         <v>1131210</v>
       </c>
-      <c r="D276" s="16" t="s">
+      <c r="D276" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E276" s="16" t="s">
+      <c r="E276" s="13" t="s">
         <v>931</v>
       </c>
-      <c r="F276" s="16" t="s">
+      <c r="F276" s="13" t="s">
         <v>932</v>
       </c>
-      <c r="G276" s="17">
+      <c r="G276" s="14">
         <v>66370076</v>
       </c>
-      <c r="H276" s="16" t="s">
+      <c r="H276" s="13" t="s">
         <v>933</v>
       </c>
-      <c r="I276" s="22">
+      <c r="I276" s="19">
         <v>200</v>
       </c>
-      <c r="J276" s="16" t="s">
+      <c r="J276" s="13" t="s">
         <v>391</v>
       </c>
-      <c r="K276" s="16" t="s">
+      <c r="K276" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="L276" s="18" t="s">
+      <c r="L276" s="15" t="s">
         <v>17</v>
       </c>
     </row>
@@ -27172,7 +27178,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -27184,164 +27190,164 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="21" t="s">
         <v>963</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="9" t="s">
         <v>964</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>951</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>954</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="10" t="s">
         <v>956</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="9" t="s">
         <v>953</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="72" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="22" t="s">
         <v>965</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="23" t="s">
         <v>952</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="23" t="s">
         <v>957</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="22" t="s">
         <v>955</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="22" t="s">
         <v>965</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="23" t="s">
         <v>958</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="23" t="s">
         <v>959</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="22" t="s">
         <v>960</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="22" t="s">
         <v>965</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="23" t="s">
         <v>961</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="23" t="s">
         <v>959</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="22" t="s">
         <v>962</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="24" t="s">
         <v>966</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="23" t="s">
         <v>967</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="23" t="s">
         <v>968</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="22" t="s">
         <v>969</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="24" t="s">
         <v>966</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="23" t="s">
         <v>973</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="23" t="s">
         <v>959</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="22" t="s">
         <v>972</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="24" t="s">
         <v>966</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="22" t="s">
         <v>975</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="23" t="s">
         <v>959</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="22" t="s">
         <v>974</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="24" t="s">
         <v>966</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="23" t="s">
         <v>970</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="23" t="s">
         <v>957</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="22" t="s">
         <v>971</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="24" t="s">
         <v>966</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="22" t="s">
         <v>976</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="23" t="s">
         <v>959</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="22" t="s">
         <v>977</v>
       </c>
     </row>
@@ -27360,7 +27366,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
